--- a/data/trans_orig/P36B11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8568</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3716</v>
+        <v>3787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17047</v>
+        <v>16385</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03138181240168204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01361003827111813</v>
+        <v>0.01387159829529753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06244050711502874</v>
+        <v>0.06001457555252365</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>4234</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9747</v>
+        <v>9531</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01623260053641406</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004139341864188877</v>
+        <v>0.004118220714673497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03736612540702051</v>
+        <v>0.03654095159654323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -785,19 +785,19 @@
         <v>12802</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7023</v>
+        <v>7158</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22651</v>
+        <v>22304</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02397990909769209</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01315467848697787</v>
+        <v>0.01340822519945417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04243009651266804</v>
+        <v>0.04178004966308776</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>44799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33790</v>
+        <v>33550</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58656</v>
+        <v>58400</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1640929394271587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.123769881597111</v>
+        <v>0.1228895526412878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2148497445312424</v>
+        <v>0.2139115381192452</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -835,19 +835,19 @@
         <v>34546</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24771</v>
+        <v>24843</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48167</v>
+        <v>47774</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1324411028419918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09496728629653278</v>
+        <v>0.09524386953725338</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1846641818345248</v>
+        <v>0.1831563553631547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -856,19 +856,19 @@
         <v>79345</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63321</v>
+        <v>62681</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96391</v>
+        <v>96315</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1486278554425436</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1186119176264131</v>
+        <v>0.1174134565756939</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1805588782518648</v>
+        <v>0.1804167388060335</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>126595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>108784</v>
+        <v>110255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142993</v>
+        <v>143465</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4637000478282081</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3984617989926708</v>
+        <v>0.4038487215182706</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5237639648526115</v>
+        <v>0.5254932261367099</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>120</v>
@@ -906,19 +906,19 @@
         <v>127571</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111177</v>
+        <v>111189</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>143284</v>
+        <v>143948</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4890800513515736</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4262284912749991</v>
+        <v>0.4262771514555911</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5493216960483641</v>
+        <v>0.5518662817185083</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>243</v>
@@ -927,19 +927,19 @@
         <v>254165</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>229997</v>
+        <v>230922</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>276595</v>
+        <v>277173</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4761007148467726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4308292512774132</v>
+        <v>0.4325608113566355</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5181155578500267</v>
+        <v>0.5191992328411184</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>90261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75890</v>
+        <v>76888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107370</v>
+        <v>107408</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3306148533504777</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2779743562093156</v>
+        <v>0.2816291698449062</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3932829780817365</v>
+        <v>0.3934215673595018</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -977,19 +977,19 @@
         <v>86956</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72336</v>
+        <v>71269</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103561</v>
+        <v>101681</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3333725408917857</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2773202712012997</v>
+        <v>0.2732294848979817</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3970303573682681</v>
+        <v>0.3898251000108212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -998,19 +998,19 @@
         <v>177217</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156874</v>
+        <v>154278</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200658</v>
+        <v>198455</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3319622591894691</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.293854468674447</v>
+        <v>0.2889914769749801</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3758710595261618</v>
+        <v>0.3717450141798631</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>2788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7296</v>
+        <v>7668</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01021034699247343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003043388319254321</v>
+        <v>0.002997021632846747</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02672260889485574</v>
+        <v>0.02808606949625376</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1048,19 +1048,19 @@
         <v>7531</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3123</v>
+        <v>3138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15435</v>
+        <v>15192</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02887370437823482</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01197268266496371</v>
+        <v>0.01202948393814935</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05917354859038603</v>
+        <v>0.05824188175233831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1069,19 +1069,19 @@
         <v>10319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5226</v>
+        <v>5017</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18622</v>
+        <v>17998</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01932926142352253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009788462812407675</v>
+        <v>0.009397771568873652</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03488289104302339</v>
+        <v>0.03371452858113508</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>6803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2898</v>
+        <v>2782</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14464</v>
+        <v>15360</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01379713092048388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005877889854667592</v>
+        <v>0.005642576848925122</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02933356432289399</v>
+        <v>0.03115237185121849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1194,19 +1194,19 @@
         <v>9952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4880</v>
+        <v>5040</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17850</v>
+        <v>16962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01974848432867744</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009684086964829086</v>
+        <v>0.01000132470510595</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03542118752495042</v>
+        <v>0.03365804400286206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1215,19 +1215,19 @@
         <v>16755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9023</v>
+        <v>10162</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26568</v>
+        <v>25720</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01680526156275722</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009049604372036292</v>
+        <v>0.01019265069080662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02664730293238296</v>
+        <v>0.02579632339704931</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>41390</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31240</v>
+        <v>29507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55150</v>
+        <v>54915</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08394170186026718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06335738023675021</v>
+        <v>0.05984371271001683</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1118485163318443</v>
+        <v>0.1113728222160512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>54</v>
@@ -1265,19 +1265,19 @@
         <v>53013</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40699</v>
+        <v>38633</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67606</v>
+        <v>66808</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1051952950126635</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08075984679582807</v>
+        <v>0.07666078856403069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1341517997754746</v>
+        <v>0.1325683473245882</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>95</v>
@@ -1286,19 +1286,19 @@
         <v>94403</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77504</v>
+        <v>77286</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>114127</v>
+        <v>113865</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09468439859410813</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07773494860099013</v>
+        <v>0.07751646403335608</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1144675120338871</v>
+        <v>0.1142045550381458</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>257357</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>233693</v>
+        <v>235096</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>279609</v>
+        <v>278930</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5219422231494935</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4739493247462001</v>
+        <v>0.4767958555846312</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5670723584146657</v>
+        <v>0.5656945258706829</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>264</v>
@@ -1336,19 +1336,19 @@
         <v>267893</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>248026</v>
+        <v>246900</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>289739</v>
+        <v>289264</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5315870429339706</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4921652098397666</v>
+        <v>0.4899306547218398</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5749371047973394</v>
+        <v>0.573995551150048</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>510</v>
@@ -1357,19 +1357,19 @@
         <v>525249</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>494198</v>
+        <v>495454</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>559999</v>
+        <v>561113</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5268172282017806</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4956732728461409</v>
+        <v>0.4969326971555509</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5616707675961847</v>
+        <v>0.5627874550034123</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>184372</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161720</v>
+        <v>162867</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206855</v>
+        <v>206611</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3739228186881212</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3279826227273896</v>
+        <v>0.3303083073960925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4195199090495918</v>
+        <v>0.4190253403082371</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>157</v>
@@ -1407,19 +1407,19 @@
         <v>158948</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140547</v>
+        <v>139044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179629</v>
+        <v>181254</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.315404058647412</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2788911363812707</v>
+        <v>0.2759092257899926</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3564427505037703</v>
+        <v>0.359666559858</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>326</v>
@@ -1428,19 +1428,19 @@
         <v>343320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>313869</v>
+        <v>311501</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>373333</v>
+        <v>375337</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3443443239907731</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3148062418154026</v>
+        <v>0.3124303846225081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3744469072700107</v>
+        <v>0.3764576505068406</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>3154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8438</v>
+        <v>9397</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006396125381634332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00210621207207157</v>
+        <v>0.002081681601317105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0171139401706629</v>
+        <v>0.019058924475461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1478,19 +1478,19 @@
         <v>14143</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7881</v>
+        <v>8132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22226</v>
+        <v>24077</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02806511907727642</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01563837086448551</v>
+        <v>0.0161360298198503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04410367486309387</v>
+        <v>0.04777625328191473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1499,19 +1499,19 @@
         <v>17297</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10223</v>
+        <v>10184</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27431</v>
+        <v>27167</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.017348787650581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01025351778707024</v>
+        <v>0.01021485364778822</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02751311897216404</v>
+        <v>0.02724817485748908</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>6184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1908</v>
+        <v>1980</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14457</v>
+        <v>14044</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01939571153133029</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005983995214300608</v>
+        <v>0.006208447527105072</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04534156910731053</v>
+        <v>0.04404557222515844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1624,19 +1624,19 @@
         <v>2929</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7994</v>
+        <v>7634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008733556477198579</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002691700868093831</v>
+        <v>0.00268156161273307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02383469731296766</v>
+        <v>0.02276049547520164</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1645,19 +1645,19 @@
         <v>9114</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4543</v>
+        <v>4176</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18556</v>
+        <v>17904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0139296488394506</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006943392280447796</v>
+        <v>0.006382374205174057</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02836135737292208</v>
+        <v>0.02736556274570862</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>15068</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9035</v>
+        <v>8928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23996</v>
+        <v>24303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04725898471829858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02833740227492048</v>
+        <v>0.0279997136753922</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07525921426042732</v>
+        <v>0.07622182567762399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1695,19 +1695,19 @@
         <v>6815</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2863</v>
+        <v>2828</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13318</v>
+        <v>13303</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02031692388171007</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00853464727985449</v>
+        <v>0.008432470698477187</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03970518796618444</v>
+        <v>0.03966061918733541</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1716,19 +1716,19 @@
         <v>21883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13846</v>
+        <v>14605</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32182</v>
+        <v>31647</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0334468620438903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02116220271331122</v>
+        <v>0.02232287921254348</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04918882430442079</v>
+        <v>0.04837151884143059</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>172182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>152922</v>
+        <v>154064</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190540</v>
+        <v>190913</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5400164815979813</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4796123507545233</v>
+        <v>0.4831909608838593</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5975932001582369</v>
+        <v>0.5987616377638816</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>208</v>
@@ -1766,19 +1766,19 @@
         <v>208608</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>191417</v>
+        <v>191938</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>226748</v>
+        <v>224451</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6219456420722185</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5706907099755684</v>
+        <v>0.5722465533766774</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6760295051057239</v>
+        <v>0.6691809050233628</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>375</v>
@@ -1787,19 +1787,19 @@
         <v>380790</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>355459</v>
+        <v>357793</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>405569</v>
+        <v>404501</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5820183025405226</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5433006250886399</v>
+        <v>0.5468678421669169</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6198919439805017</v>
+        <v>0.6182590512721926</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>120541</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>104424</v>
+        <v>103605</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>140289</v>
+        <v>138521</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3780526280291082</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3275074887392992</v>
+        <v>0.3249385069165571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4399883510555582</v>
+        <v>0.4344455710374216</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -1837,19 +1837,19 @@
         <v>115052</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97380</v>
+        <v>98108</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131414</v>
+        <v>131392</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3430179572482773</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2903307487300852</v>
+        <v>0.2925002177702216</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3917976049363388</v>
+        <v>0.3917338521829696</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>232</v>
@@ -1858,19 +1858,19 @@
         <v>235593</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>211407</v>
+        <v>211209</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>260136</v>
+        <v>257565</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3600917462087694</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3231252224504317</v>
+        <v>0.3228223089880656</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3976052128324756</v>
+        <v>0.393674540751067</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>4871</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1893</v>
+        <v>1789</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11099</v>
+        <v>11021</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01527619412328157</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005938298710673979</v>
+        <v>0.005611075678049072</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03480877816097454</v>
+        <v>0.03456407015748651</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7055</v>
+        <v>6960</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005985920320595649</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02103300962680099</v>
+        <v>0.02074940020392251</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1929,19 +1929,19 @@
         <v>6879</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2917</v>
+        <v>2923</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14172</v>
+        <v>13077</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01051344036736705</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004458339342778668</v>
+        <v>0.004467626829933123</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02166052282268215</v>
+        <v>0.01998804499730676</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>7793</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3560</v>
+        <v>3507</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14729</v>
+        <v>14779</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02172725296251932</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00992428501298516</v>
+        <v>0.009778800149226023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04106585894949483</v>
+        <v>0.04120568395713619</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2054,19 +2054,19 @@
         <v>18387</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10648</v>
+        <v>11354</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28035</v>
+        <v>30082</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0494993107358157</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02866440786791568</v>
+        <v>0.03056530596906479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07547226553328769</v>
+        <v>0.08098316166289785</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -2075,19 +2075,19 @@
         <v>26180</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17770</v>
+        <v>17104</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37456</v>
+        <v>37651</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03585643245150581</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0243378062936497</v>
+        <v>0.02342559483337161</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05130115741699649</v>
+        <v>0.05156835426125524</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>46215</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35237</v>
+        <v>34968</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59735</v>
+        <v>60202</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1288505929716365</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09824431971034639</v>
+        <v>0.09749247291968105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1665442640585225</v>
+        <v>0.1678465621738295</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -2125,19 +2125,19 @@
         <v>23411</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15387</v>
+        <v>15668</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32951</v>
+        <v>33794</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06302580591854455</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04142390150144287</v>
+        <v>0.04217865415326333</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08870780272918032</v>
+        <v>0.09097581044779481</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>74</v>
@@ -2146,19 +2146,19 @@
         <v>69626</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>56238</v>
+        <v>56127</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>85855</v>
+        <v>85367</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09536188865273218</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07702517270383734</v>
+        <v>0.07687344225925263</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1175887633717811</v>
+        <v>0.1169211788719972</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>198242</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>176821</v>
+        <v>179340</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>216818</v>
+        <v>215879</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5527134023013435</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4929886071817931</v>
+        <v>0.5000134351095507</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6045034330457387</v>
+        <v>0.601886355633667</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>233</v>
@@ -2196,19 +2196,19 @@
         <v>224098</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>207901</v>
+        <v>205121</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>242930</v>
+        <v>242911</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6032970247812537</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5596930852015156</v>
+        <v>0.5522080523354946</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6539930786357457</v>
+        <v>0.6539430411258008</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>431</v>
@@ -2217,19 +2217,19 @@
         <v>422341</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>395951</v>
+        <v>393324</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>448161</v>
+        <v>446108</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5784480845152409</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.542304914900382</v>
+        <v>0.5387067531523076</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6138123412908278</v>
+        <v>0.6110008600143617</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>103812</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86870</v>
+        <v>87648</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120874</v>
+        <v>121544</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2894340582598308</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2421996371041422</v>
+        <v>0.2443686643267448</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3370052608050072</v>
+        <v>0.3388720978556287</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>108</v>
@@ -2267,19 +2267,19 @@
         <v>104620</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87662</v>
+        <v>87994</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>121575</v>
+        <v>121178</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2816483080374737</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2359958492341754</v>
+        <v>0.2368892048382036</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3272929461661232</v>
+        <v>0.3262234958347403</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>212</v>
@@ -2288,19 +2288,19 @@
         <v>208432</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>184381</v>
+        <v>187418</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>231548</v>
+        <v>232845</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2854730171570763</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2525330752343415</v>
+        <v>0.2566917395187682</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3171338759848756</v>
+        <v>0.3189107094867655</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>2609</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7849</v>
+        <v>7077</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007274693504669982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002300739309851591</v>
+        <v>0.002312135334835637</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02188282058915442</v>
+        <v>0.01973028321231564</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5631</v>
+        <v>4703</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002529550526912417</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01516009377385199</v>
+        <v>0.0126604958346296</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2359,19 +2359,19 @@
         <v>3549</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>856</v>
+        <v>918</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8121</v>
+        <v>8891</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004860577223444825</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001172461323259873</v>
+        <v>0.001257576282728926</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01112291709244378</v>
+        <v>0.01217682143782051</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>3647</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>951</v>
+        <v>887</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8981</v>
+        <v>8965</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01801682039064201</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004695432709156119</v>
+        <v>0.004382373837565628</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04436185590944007</v>
+        <v>0.04428488056962992</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2484,19 +2484,19 @@
         <v>5350</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13420</v>
+        <v>13721</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02576377492820014</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007791520057068609</v>
+        <v>0.007771245397883261</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06462388931748551</v>
+        <v>0.06607402621477239</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2505,19 +2505,19 @@
         <v>8998</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4337</v>
+        <v>4257</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17959</v>
+        <v>17482</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0219396763886661</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01057586350858582</v>
+        <v>0.01038132311516832</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04379175274242746</v>
+        <v>0.04262795096172476</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>24483</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16977</v>
+        <v>16832</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34658</v>
+        <v>35599</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1209373755830819</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08386071352384965</v>
+        <v>0.08314572607392738</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1711994554223946</v>
+        <v>0.1758515938365154</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2555,19 +2555,19 @@
         <v>30694</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20477</v>
+        <v>20754</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42820</v>
+        <v>42024</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1478019153260378</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09860659482412711</v>
+        <v>0.09994059051234289</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2061937344678397</v>
+        <v>0.2023630151071971</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -2576,19 +2576,19 @@
         <v>55176</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42215</v>
+        <v>42680</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70463</v>
+        <v>70068</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1345408787860359</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1029361856498345</v>
+        <v>0.1040695113684173</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1718167290208147</v>
+        <v>0.1708524002820076</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>102363</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>88100</v>
+        <v>89289</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>118028</v>
+        <v>116340</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5056483250617876</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4351908369556589</v>
+        <v>0.4410640609607212</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5830290508072021</v>
+        <v>0.5746883913565125</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>102</v>
@@ -2626,19 +2626,19 @@
         <v>106834</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>93204</v>
+        <v>93033</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>122355</v>
+        <v>122406</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5144450911807781</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4488136651533529</v>
+        <v>0.4479867929476372</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5891842310599462</v>
+        <v>0.5894291574364028</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>205</v>
@@ -2647,19 +2647,19 @@
         <v>209197</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>186674</v>
+        <v>189597</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>230503</v>
+        <v>230580</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5101027783009019</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4551827017360706</v>
+        <v>0.4623087798180935</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5620537386429436</v>
+        <v>0.5622417823117513</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>51061</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>39291</v>
+        <v>39673</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>64830</v>
+        <v>63686</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2522272603995553</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1940854152804558</v>
+        <v>0.1959732410598002</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3202445900632531</v>
+        <v>0.314590920944556</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>44</v>
@@ -2697,19 +2697,19 @@
         <v>45087</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34043</v>
+        <v>34812</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>58125</v>
+        <v>58432</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2171101804430051</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1639308562609258</v>
+        <v>0.1676346431430241</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2798939088153737</v>
+        <v>0.2813700741569635</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>95</v>
@@ -2718,19 +2718,19 @@
         <v>96148</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>80180</v>
+        <v>80327</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>113260</v>
+        <v>114181</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2344448857808878</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1955104601931284</v>
+        <v>0.1958690500497469</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2761700873500626</v>
+        <v>0.2784178358127594</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>20886</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13061</v>
+        <v>13079</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31796</v>
+        <v>30934</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1031702185649332</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06451690169425703</v>
+        <v>0.06460594402943215</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1570627205002546</v>
+        <v>0.1528044347935967</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -2768,19 +2768,19 @@
         <v>19703</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12602</v>
+        <v>13153</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29458</v>
+        <v>29762</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09487903812197895</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0606830386142134</v>
+        <v>0.063334274714604</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1418534559535689</v>
+        <v>0.1433166826167762</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -2789,19 +2789,19 @@
         <v>40589</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30150</v>
+        <v>29520</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55233</v>
+        <v>53677</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09897178074350832</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07351675799896135</v>
+        <v>0.07198088834962132</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1346791478993448</v>
+        <v>0.130884948450935</v>
       </c>
     </row>
     <row r="33">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7504</v>
+        <v>8100</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007256543742415063</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02771100956484341</v>
+        <v>0.02990929078251774</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7178</v>
+        <v>5712</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006808740807815104</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02580802800426509</v>
+        <v>0.02053790926052936</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -2935,19 +2935,19 @@
         <v>3859</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9678</v>
+        <v>9500</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007029651376858025</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001728307480839942</v>
+        <v>0.001725742805282124</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0176296517842546</v>
+        <v>0.0173060234772993</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>28277</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>20156</v>
+        <v>18890</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38407</v>
+        <v>39799</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1044158542416263</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07442955056758528</v>
+        <v>0.0697536826782563</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1418235315402034</v>
+        <v>0.1469631185856942</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -2985,19 +2985,19 @@
         <v>18270</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11017</v>
+        <v>11106</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>28921</v>
+        <v>28289</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06568551035891212</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03960849067647428</v>
+        <v>0.03993004339146721</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1039773652974738</v>
+        <v>0.1017048854643626</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>44</v>
@@ -3006,19 +3006,19 @@
         <v>46547</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>33595</v>
+        <v>34273</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>60203</v>
+        <v>61013</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08479200039118893</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06119787333137269</v>
+        <v>0.06243385937749794</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1096674651625289</v>
+        <v>0.1111435698781875</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>159396</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>142662</v>
+        <v>144382</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>177434</v>
+        <v>175182</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5885868867924882</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5267940539863396</v>
+        <v>0.5331450191704864</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6551960251758756</v>
+        <v>0.646877718843873</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>183</v>
@@ -3056,19 +3056,19 @@
         <v>187207</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>170399</v>
+        <v>172104</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>202312</v>
+        <v>202425</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6730590906640463</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6126271804651763</v>
+        <v>0.6187591389401488</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7273645922294922</v>
+        <v>0.7277707924377749</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>340</v>
@@ -3077,19 +3077,19 @@
         <v>346603</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>324262</v>
+        <v>324955</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>366954</v>
+        <v>367948</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6313871828141211</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5906899233280954</v>
+        <v>0.5919527089951974</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6684596983198889</v>
+        <v>0.6702705398494848</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>81173</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>66271</v>
+        <v>67598</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>96981</v>
+        <v>97843</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2997407152234705</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.244713042116868</v>
+        <v>0.2496115439607205</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3581140649997257</v>
+        <v>0.3612978414419153</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>67</v>
@@ -3127,19 +3127,19 @@
         <v>69832</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57103</v>
+        <v>55951</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>85900</v>
+        <v>83559</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2510651604790629</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2052993506560891</v>
+        <v>0.2011591415221343</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3088322672603525</v>
+        <v>0.3004168988268459</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>147</v>
@@ -3148,19 +3148,19 @@
         <v>151005</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>132822</v>
+        <v>131172</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>175501</v>
+        <v>171264</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2750778313800989</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2419544809283045</v>
+        <v>0.238947808906588</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3197001366037028</v>
+        <v>0.3119827293125571</v>
       </c>
     </row>
     <row r="38">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>4354</v>
+        <v>5393</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.003381497690163563</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01565286273822075</v>
+        <v>0.01938844377020323</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4804</v>
+        <v>4731</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.001713334037733078</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.008750274887649311</v>
+        <v>0.008617456025533073</v>
       </c>
     </row>
     <row r="39">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10301</v>
+        <v>11435</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004285246908920356</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01674946670777137</v>
+        <v>0.01859200948320098</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -3336,19 +3336,19 @@
         <v>3701</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>987</v>
+        <v>916</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10004</v>
+        <v>9211</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.00580735045140821</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001548404209490282</v>
+        <v>0.001437184148652572</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01569904164891514</v>
+        <v>0.01445430467116444</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -3357,19 +3357,19 @@
         <v>6336</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2647</v>
+        <v>1896</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>12928</v>
+        <v>13419</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.005059789490958354</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002113396543046132</v>
+        <v>0.001513742068942811</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01032412396708025</v>
+        <v>0.01071626511965197</v>
       </c>
     </row>
     <row r="41">
@@ -3386,19 +3386,19 @@
         <v>20142</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12928</v>
+        <v>12605</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30696</v>
+        <v>30880</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03274955378474874</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02102082124166219</v>
+        <v>0.0204954495588464</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04991043449192192</v>
+        <v>0.0502098140378463</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>22</v>
@@ -3407,19 +3407,19 @@
         <v>23034</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>14449</v>
+        <v>15517</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>34097</v>
+        <v>35922</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03614739834842085</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02267437969782687</v>
+        <v>0.02435014336213481</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05350885423705678</v>
+        <v>0.05637274929214627</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>43</v>
@@ -3428,19 +3428,19 @@
         <v>43176</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>31636</v>
+        <v>32760</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>56945</v>
+        <v>58537</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03447859207172939</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02526342775910673</v>
+        <v>0.02616065332218077</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0454738640868524</v>
+        <v>0.04674550284253589</v>
       </c>
     </row>
     <row r="42">
@@ -3457,19 +3457,19 @@
         <v>238006</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>212906</v>
+        <v>213913</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>264370</v>
+        <v>262059</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.386985208635238</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3461740175081156</v>
+        <v>0.3478107114799557</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.429851505465918</v>
+        <v>0.4260940670310788</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>306</v>
@@ -3478,19 +3478,19 @@
         <v>317192</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>291854</v>
+        <v>292047</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>342357</v>
+        <v>341948</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4977706633923302</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4580085192810837</v>
+        <v>0.4583107751250227</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5372630962874461</v>
+        <v>0.5366202654008344</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>538</v>
@@ -3499,19 +3499,19 @@
         <v>555198</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>522339</v>
+        <v>522473</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>595146</v>
+        <v>595070</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4433598571296237</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4171199904442122</v>
+        <v>0.4172264451415653</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4752607225092982</v>
+        <v>0.4752000282759966</v>
       </c>
     </row>
     <row r="43">
@@ -3528,19 +3528,19 @@
         <v>338377</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>314160</v>
+        <v>314712</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>362797</v>
+        <v>363995</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.5501829273010095</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5108062171028056</v>
+        <v>0.5117037043009129</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.5898885883222766</v>
+        <v>0.5918356270540969</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>277</v>
@@ -3549,19 +3549,19 @@
         <v>282349</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>257337</v>
+        <v>257984</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>309417</v>
+        <v>306018</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4430913718145875</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4038408186406761</v>
+        <v>0.404855045328738</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4855695471647988</v>
+        <v>0.4802358923405324</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>604</v>
@@ -3570,19 +3570,19 @@
         <v>620726</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>584320</v>
+        <v>584371</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>654591</v>
+        <v>653929</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4956879684591535</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4666151555270827</v>
+        <v>0.4666557716992489</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.5227307752572794</v>
+        <v>0.5222021992222188</v>
       </c>
     </row>
     <row r="44">
@@ -3599,19 +3599,19 @@
         <v>15866</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9469</v>
+        <v>9646</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26011</v>
+        <v>25624</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02579706337008345</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01539622109079658</v>
+        <v>0.01568433789929097</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04229227964749496</v>
+        <v>0.04166267097593169</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>11</v>
@@ -3620,19 +3620,19 @@
         <v>10950</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5600</v>
+        <v>5639</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>18972</v>
+        <v>20196</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01718321599325332</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008788691332759831</v>
+        <v>0.008850091461270072</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02977222470198623</v>
+        <v>0.03169417548447268</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>27</v>
@@ -3641,19 +3641,19 @@
         <v>26815</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>16754</v>
+        <v>17794</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>37235</v>
+        <v>38004</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02141379284853515</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0133787653888893</v>
+        <v>0.01420934570613215</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02973432218277629</v>
+        <v>0.03034873342863604</v>
       </c>
     </row>
     <row r="45">
@@ -3745,19 +3745,19 @@
         <v>14315</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8421</v>
+        <v>7904</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22888</v>
+        <v>22564</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01924587313281877</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01132102163003477</v>
+        <v>0.01062605462252049</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03077250350813168</v>
+        <v>0.03033678063669615</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>14</v>
@@ -3766,19 +3766,19 @@
         <v>13871</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>7973</v>
+        <v>7905</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>22361</v>
+        <v>23478</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01772747724329095</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0101902823701653</v>
+        <v>0.01010304193513449</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02857800056117596</v>
+        <v>0.03000543643781995</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>29</v>
@@ -3787,19 +3787,19 @@
         <v>28186</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>19061</v>
+        <v>19267</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>39969</v>
+        <v>40517</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01846744658811179</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01248856597298238</v>
+        <v>0.01262373497761339</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02618803718307686</v>
+        <v>0.02654715080899425</v>
       </c>
     </row>
     <row r="47">
@@ -3816,19 +3816,19 @@
         <v>65804</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>50208</v>
+        <v>51288</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>82057</v>
+        <v>83619</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08847125023621175</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.06750312505879527</v>
+        <v>0.06895411087580852</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1103217271278193</v>
+        <v>0.1124215043534214</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>54</v>
@@ -3837,19 +3837,19 @@
         <v>55838</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>43874</v>
+        <v>42538</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>72033</v>
+        <v>72432</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.07136252165954812</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0560722306251301</v>
+        <v>0.05436517868782906</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.09206020842490016</v>
+        <v>0.09257038674831529</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>119</v>
@@ -3858,19 +3858,19 @@
         <v>121642</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>101597</v>
+        <v>99449</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>141775</v>
+        <v>142773</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.07970022512865345</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.06656681597896481</v>
+        <v>0.06515902611597782</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09289120675533863</v>
+        <v>0.09354538000601466</v>
       </c>
     </row>
     <row r="48">
@@ -3887,19 +3887,19 @@
         <v>373845</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>347521</v>
+        <v>346816</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>403440</v>
+        <v>400795</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.5026187824337341</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4672271413583901</v>
+        <v>0.4662795184347161</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.5424079172859446</v>
+        <v>0.5388519387971675</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>373</v>
@@ -3908,19 +3908,19 @@
         <v>392181</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>361112</v>
+        <v>363793</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>416260</v>
+        <v>421524</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5012217787549031</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4615132692202452</v>
+        <v>0.4649399969192769</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5319954290394688</v>
+        <v>0.5387227267340261</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>737</v>
@@ -3929,19 +3929,19 @@
         <v>766027</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>725724</v>
+        <v>726839</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>805882</v>
+        <v>804451</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5019025892761029</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4754960281221435</v>
+        <v>0.476226416972967</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.5280155500495524</v>
+        <v>0.5270782607357689</v>
       </c>
     </row>
     <row r="49">
@@ -3958,19 +3958,19 @@
         <v>264234</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>237328</v>
+        <v>240833</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>291444</v>
+        <v>291421</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3552508596752672</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3190776376035607</v>
+        <v>0.323789366385778</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3918341166338861</v>
+        <v>0.3918027949312824</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>277</v>
@@ -3979,19 +3979,19 @@
         <v>293104</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>268645</v>
+        <v>265302</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>323614</v>
+        <v>321524</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3745971171597016</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3433378332996273</v>
+        <v>0.3390657769393521</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4135907483414055</v>
+        <v>0.410919498848787</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>544</v>
@@ -4000,19 +4000,19 @@
         <v>557338</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>521851</v>
+        <v>519219</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>596717</v>
+        <v>594871</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3651689847640429</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3419177342697365</v>
+        <v>0.3401938083432525</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3909707205101055</v>
+        <v>0.3897607165013752</v>
       </c>
     </row>
     <row r="50">
@@ -4029,19 +4029,19 @@
         <v>25596</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>16904</v>
+        <v>16348</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>37585</v>
+        <v>38128</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03441323452196816</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02272694579182038</v>
+        <v>0.02197874816383803</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.05053082938885074</v>
+        <v>0.05126119863138624</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>26</v>
@@ -4050,19 +4050,19 @@
         <v>27457</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>18521</v>
+        <v>17895</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>39062</v>
+        <v>38844</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03509110518255617</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02367066891222327</v>
+        <v>0.02287106852781874</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04992279529849356</v>
+        <v>0.0496435150056541</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>51</v>
@@ -4071,19 +4071,19 @@
         <v>53053</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>39802</v>
+        <v>39362</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>67532</v>
+        <v>70072</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.03476075424308901</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02607827586305083</v>
+        <v>0.02579029383938924</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04424684090133938</v>
+        <v>0.04591113575276823</v>
       </c>
     </row>
     <row r="51">
@@ -4175,19 +4175,19 @@
         <v>51911</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>39037</v>
+        <v>37643</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>68472</v>
+        <v>68315</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01584734574941803</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01191726442446997</v>
+        <v>0.01149161016342102</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02090317902822314</v>
+        <v>0.02085513244490594</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>58</v>
@@ -4196,19 +4196,19 @@
         <v>60318</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>47271</v>
+        <v>46006</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>77297</v>
+        <v>77131</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01786067506567341</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0139972618678741</v>
+        <v>0.01362282098428767</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02288835510466079</v>
+        <v>0.02283927043984476</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>109</v>
@@ -4217,19 +4217,19 @@
         <v>112229</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>93791</v>
+        <v>90767</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>136483</v>
+        <v>133950</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01686936396392263</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01409786119599986</v>
+        <v>0.01364343268477583</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02051499133020116</v>
+        <v>0.02013434686360772</v>
       </c>
     </row>
     <row r="53">
@@ -4246,19 +4246,19 @@
         <v>286178</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>254690</v>
+        <v>258549</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>318929</v>
+        <v>321736</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.08736450989330419</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.07775184364621651</v>
+        <v>0.07892999155717424</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.09736284358319373</v>
+        <v>0.09821966027920076</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>239</v>
@@ -4267,19 +4267,19 @@
         <v>245620</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>215320</v>
+        <v>214161</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>278317</v>
+        <v>275870</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.07273013074753754</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.06375801291122163</v>
+        <v>0.06341470763790923</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.08241192725602278</v>
+        <v>0.08168737625759134</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>525</v>
@@ -4288,19 +4288,19 @@
         <v>531798</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>488727</v>
+        <v>487217</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>578905</v>
+        <v>577106</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.07993571922096761</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.07346163511457601</v>
+        <v>0.0732346391929697</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.08701645400942626</v>
+        <v>0.08674613825890001</v>
       </c>
     </row>
     <row r="54">
@@ -4317,19 +4317,19 @@
         <v>1627987</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1565253</v>
+        <v>1570884</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1682502</v>
+        <v>1688546</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.4969927473070286</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.4778413053036529</v>
+        <v>0.4795604057067101</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.513635109445832</v>
+        <v>0.5154804084198057</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1789</v>
@@ -4338,19 +4338,19 @@
         <v>1831584</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1773174</v>
+        <v>1775815</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1891223</v>
+        <v>1892097</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.5423472633773438</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.5250515715930664</v>
+        <v>0.5258336284873716</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.5600066663961318</v>
+        <v>0.5602654933590866</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3379</v>
@@ -4359,19 +4359,19 @@
         <v>3459572</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>3373466</v>
+        <v>3375119</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>3533278</v>
+        <v>3536650</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.5200158767869671</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.5070731192098067</v>
+        <v>0.5073215824681397</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.531094882562623</v>
+        <v>0.5316017223687479</v>
       </c>
     </row>
     <row r="55">
@@ -4388,19 +4388,19 @@
         <v>1233830</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1177957</v>
+        <v>1180609</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1291934</v>
+        <v>1291375</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3766644918517888</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3596072849188576</v>
+        <v>0.3604171656776102</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3944024070289592</v>
+        <v>0.3942316964802675</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1127</v>
@@ -4409,19 +4409,19 @@
         <v>1155948</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1102286</v>
+        <v>1096686</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1215914</v>
+        <v>1210634</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3422857690315117</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.3263961402719234</v>
+        <v>0.3247377032180112</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.360042217679895</v>
+        <v>0.3584788786897924</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2338</v>
@@ -4430,19 +4430,19 @@
         <v>2389779</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2313004</v>
+        <v>2315429</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2464563</v>
+        <v>2475920</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3592129598892594</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3476727167354242</v>
+        <v>0.3480372183141913</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3704539021998582</v>
+        <v>0.3721610612407266</v>
       </c>
     </row>
     <row r="56">
@@ -4459,19 +4459,19 @@
         <v>75769</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>59937</v>
+        <v>60009</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>94124</v>
+        <v>94449</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.02313090519846038</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01829772799806634</v>
+        <v>0.01831969795633119</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02873437173406106</v>
+        <v>0.02883350476235349</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>82</v>
@@ -4480,19 +4480,19 @@
         <v>83673</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>68620</v>
+        <v>68060</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>103209</v>
+        <v>103210</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.02477616177793356</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.02031889311405933</v>
+        <v>0.02015311564697445</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.03056098081269965</v>
+        <v>0.03056135823693596</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>157</v>
@@ -4501,19 +4501,19 @@
         <v>159442</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>134947</v>
+        <v>134651</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>185901</v>
+        <v>183558</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.02396608013888321</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.02028417487863406</v>
+        <v>0.02023962330641614</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02794323958271027</v>
+        <v>0.02759103606369397</v>
       </c>
     </row>
     <row r="57">
@@ -4849,19 +4849,19 @@
         <v>11933</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6604</v>
+        <v>6418</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19407</v>
+        <v>20250</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04048721796295979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02240596629041323</v>
+        <v>0.02177502091240377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06584372651171427</v>
+        <v>0.06870495757385549</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4870,19 +4870,19 @@
         <v>12513</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7000</v>
+        <v>6974</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20515</v>
+        <v>21352</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04372796401658199</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02446248480164239</v>
+        <v>0.02437257156835055</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07169267676381309</v>
+        <v>0.07461811422346781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4891,19 +4891,19 @@
         <v>24446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16477</v>
+        <v>16153</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36946</v>
+        <v>35801</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04208364212690611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02836562773323099</v>
+        <v>0.02780667123396004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06360188193195183</v>
+        <v>0.06163091813274275</v>
       </c>
     </row>
     <row r="5">
@@ -4920,19 +4920,19 @@
         <v>41817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30739</v>
+        <v>31278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56018</v>
+        <v>55900</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1418792837045768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1042937755389051</v>
+        <v>0.1061227556146557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1900593813200055</v>
+        <v>0.189660553825609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -4941,19 +4941,19 @@
         <v>30446</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20772</v>
+        <v>19982</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44301</v>
+        <v>44320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1063981847124643</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07258967679361775</v>
+        <v>0.06982869094023829</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.154816019902428</v>
+        <v>0.1548832670025072</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -4962,19 +4962,19 @@
         <v>72263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55599</v>
+        <v>55692</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89922</v>
+        <v>90886</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1244009367878014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09571299034413201</v>
+        <v>0.09587364458457645</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1548005881322836</v>
+        <v>0.1564595809634074</v>
       </c>
     </row>
     <row r="6">
@@ -4991,19 +4991,19 @@
         <v>135924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>118535</v>
+        <v>118000</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>153062</v>
+        <v>153253</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4611700800448726</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4021707518372202</v>
+        <v>0.4003570221523071</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5193148763285215</v>
+        <v>0.5199626054643389</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -5012,19 +5012,19 @@
         <v>125057</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>109129</v>
+        <v>106828</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>145150</v>
+        <v>141718</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4370274483105085</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3813642907031578</v>
+        <v>0.3733243362261374</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5072456724324187</v>
+        <v>0.495253067456424</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>246</v>
@@ -5033,19 +5033,19 @@
         <v>260981</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>236099</v>
+        <v>237696</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>288003</v>
+        <v>286505</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4492771763602665</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.40644291033497</v>
+        <v>0.4091921040358966</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4957947683437733</v>
+        <v>0.4932161464252869</v>
       </c>
     </row>
     <row r="7">
@@ -5062,19 +5062,19 @@
         <v>90678</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73682</v>
+        <v>74885</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>106524</v>
+        <v>109559</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.307655495662453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2499920632300631</v>
+        <v>0.2540722788552386</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3614201604371811</v>
+        <v>0.3717159232556425</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -5083,19 +5083,19 @@
         <v>101409</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83601</v>
+        <v>84520</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117126</v>
+        <v>119271</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3543882804761058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2921547543695997</v>
+        <v>0.2953679439682746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4093120340214514</v>
+        <v>0.4168087711701533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -5104,19 +5104,19 @@
         <v>192087</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168920</v>
+        <v>166483</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217241</v>
+        <v>215258</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3306765364014001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2907944996445171</v>
+        <v>0.2865992421543781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3739796275053479</v>
+        <v>0.370565447737445</v>
       </c>
     </row>
     <row r="8">
@@ -5133,19 +5133,19 @@
         <v>14386</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8376</v>
+        <v>8420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23650</v>
+        <v>23493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04880792262513782</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02841848931730607</v>
+        <v>0.02856637683741578</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08023963633525494</v>
+        <v>0.07970966007153502</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -5154,19 +5154,19 @@
         <v>16728</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9913</v>
+        <v>9848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26526</v>
+        <v>26839</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05845812248433942</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03464402401099214</v>
+        <v>0.03441627326671132</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09269838604494936</v>
+        <v>0.09379342104181887</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -5175,19 +5175,19 @@
         <v>31114</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21800</v>
+        <v>21392</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45084</v>
+        <v>44141</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05356170832362586</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0375283167336534</v>
+        <v>0.03682564160220754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07761153261333673</v>
+        <v>0.07598913326358479</v>
       </c>
     </row>
     <row r="9">
@@ -5279,19 +5279,19 @@
         <v>8440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3858</v>
+        <v>3512</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17555</v>
+        <v>16952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01676242913882211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007663134062570589</v>
+        <v>0.006975130815334621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03486462497517915</v>
+        <v>0.03366732540977215</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5300,19 +5300,19 @@
         <v>12082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6114</v>
+        <v>6100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21951</v>
+        <v>20986</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02311342854741264</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01169562928933217</v>
+        <v>0.01167038042729979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04199385282516945</v>
+        <v>0.0401470634761412</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -5321,19 +5321,19 @@
         <v>20522</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12785</v>
+        <v>12338</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32035</v>
+        <v>32545</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01999741999994242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01245854145402342</v>
+        <v>0.01202276472646053</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03121618297768731</v>
+        <v>0.03171312874274241</v>
       </c>
     </row>
     <row r="11">
@@ -5350,19 +5350,19 @@
         <v>41595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30216</v>
+        <v>30813</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55069</v>
+        <v>54788</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08261143935854226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06001055276589749</v>
+        <v>0.06119638577310973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.109370877999182</v>
+        <v>0.1088125925654665</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -5371,19 +5371,19 @@
         <v>34599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24719</v>
+        <v>24890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45981</v>
+        <v>46949</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06618870346660301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04728908276203433</v>
+        <v>0.04761507955186977</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08796346171810324</v>
+        <v>0.0898139391429624</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -5392,19 +5392,19 @@
         <v>76194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>61291</v>
+        <v>61272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>93854</v>
+        <v>95843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07424623616656047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05972395853832218</v>
+        <v>0.05970536758416962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0914542729191883</v>
+        <v>0.0933924285794019</v>
       </c>
     </row>
     <row r="12">
@@ -5421,19 +5421,19 @@
         <v>267292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>243368</v>
+        <v>243270</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>290087</v>
+        <v>289610</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5308620569757347</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4833484439463076</v>
+        <v>0.4831534411375957</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5761343582806517</v>
+        <v>0.575188913008981</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>269</v>
@@ -5442,19 +5442,19 @@
         <v>292616</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>270340</v>
+        <v>266620</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>316641</v>
+        <v>315718</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5597824434728051</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5171692199599125</v>
+        <v>0.5100512785106391</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6057434687835459</v>
+        <v>0.6039770166275689</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>527</v>
@@ -5463,19 +5463,19 @@
         <v>559907</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>528122</v>
+        <v>527451</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>593180</v>
+        <v>591954</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5455931536109417</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5146205356403123</v>
+        <v>0.5139666563049426</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5780154981809174</v>
+        <v>0.5768202312193393</v>
       </c>
     </row>
     <row r="13">
@@ -5492,19 +5492,19 @@
         <v>184190</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163847</v>
+        <v>162643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>209236</v>
+        <v>209059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3658165855658454</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3254124101814626</v>
+        <v>0.3230213315584031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4155586751659208</v>
+        <v>0.4152074836963662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -5513,19 +5513,19 @@
         <v>181424</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159611</v>
+        <v>159005</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>203571</v>
+        <v>205101</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3470703618436506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3053405067585154</v>
+        <v>0.3041817379840066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3894381157633843</v>
+        <v>0.3923640866029364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>328</v>
@@ -5534,19 +5534,19 @@
         <v>365615</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>335004</v>
+        <v>335491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>397317</v>
+        <v>398074</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3562678738560335</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3264398908941423</v>
+        <v>0.3269141510955511</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3871597099470584</v>
+        <v>0.3878970277589315</v>
       </c>
     </row>
     <row r="14">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6938</v>
+        <v>6167</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003947488961055514</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0137798631305732</v>
+        <v>0.01224794387823184</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6830</v>
+        <v>7171</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003845062669528555</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01306625932025605</v>
+        <v>0.01371814449920527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -5605,19 +5605,19 @@
         <v>3998</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9977</v>
+        <v>10213</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003895316366521814</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0009852695932260356</v>
+        <v>0.0009750225178139527</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009722269077801925</v>
+        <v>0.009951801733601077</v>
       </c>
     </row>
     <row r="15">
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5029</v>
+        <v>5022</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003108828176366743</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01551907243669623</v>
+        <v>0.01549699684433854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6506</v>
+        <v>6918</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006031484356272055</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01907745833544319</v>
+        <v>0.02028525988932588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -5751,19 +5751,19 @@
         <v>3064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9032</v>
+        <v>9196</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0046074527052478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001463142171997389</v>
+        <v>0.001483032655164704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01358073165475</v>
+        <v>0.01382724997888834</v>
       </c>
     </row>
     <row r="17">
@@ -5780,19 +5780,19 @@
         <v>44203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32433</v>
+        <v>32547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56870</v>
+        <v>56923</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1364110340573434</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1000870240341661</v>
+        <v>0.1004381500431031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1754999470321401</v>
+        <v>0.1756648243292791</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -5801,19 +5801,19 @@
         <v>38342</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28679</v>
+        <v>27155</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52319</v>
+        <v>51826</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.112434184822877</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08409708631736357</v>
+        <v>0.07963014795575211</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1534200322401728</v>
+        <v>0.1519746823354434</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -5822,19 +5822,19 @@
         <v>82546</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>66031</v>
+        <v>66593</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>100166</v>
+        <v>102552</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1241166373934093</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09928414605951856</v>
+        <v>0.1001303470267479</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1506100289123751</v>
+        <v>0.1541981367839965</v>
       </c>
     </row>
     <row r="18">
@@ -5851,19 +5851,19 @@
         <v>215206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>199313</v>
+        <v>198164</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>233078</v>
+        <v>231280</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6641208811854286</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6150774887142063</v>
+        <v>0.6115305615130763</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7192735030792694</v>
+        <v>0.7137256516408856</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>195</v>
@@ -5872,19 +5872,19 @@
         <v>212406</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>194663</v>
+        <v>192877</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>228946</v>
+        <v>230492</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6228562955445963</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5708262086344873</v>
+        <v>0.5655875581672436</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.671357613367586</v>
+        <v>0.6758894902510486</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>405</v>
@@ -5893,19 +5893,19 @@
         <v>427612</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>402964</v>
+        <v>401602</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>452889</v>
+        <v>452834</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6429620050094879</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6059011344569446</v>
+        <v>0.6038523733407661</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6809691352726784</v>
+        <v>0.6808860874190772</v>
       </c>
     </row>
     <row r="19">
@@ -5922,19 +5922,19 @@
         <v>62607</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49760</v>
+        <v>50048</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76389</v>
+        <v>77550</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1932055466236937</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1535569842868937</v>
+        <v>0.1544470994284259</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2357344040212146</v>
+        <v>0.2393181261175761</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -5943,19 +5943,19 @@
         <v>85251</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69559</v>
+        <v>71378</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102215</v>
+        <v>104876</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2499886105420745</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2039726868512459</v>
+        <v>0.2093078698526496</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2997343636687139</v>
+        <v>0.3075369788876052</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -5964,19 +5964,19 @@
         <v>147859</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126907</v>
+        <v>126607</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169249</v>
+        <v>168926</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2223216954879311</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.190819119649434</v>
+        <v>0.1903668877247303</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2544844017479077</v>
+        <v>0.2539983984992579</v>
       </c>
     </row>
     <row r="20">
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5261</v>
+        <v>5108</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00315370995716751</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01623531911613489</v>
+        <v>0.01576254012065572</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -6014,19 +6014,19 @@
         <v>2963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7966</v>
+        <v>8776</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008689424734180154</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002869417613870218</v>
+        <v>0.002865764935740445</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02335809429153773</v>
+        <v>0.02573446519462286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -6035,19 +6035,19 @@
         <v>3985</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9047</v>
+        <v>9970</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005992209403923937</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001485893449144464</v>
+        <v>0.00148428757037962</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01360374438041705</v>
+        <v>0.0149907565363426</v>
       </c>
     </row>
     <row r="21">
@@ -6139,19 +6139,19 @@
         <v>8344</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4009</v>
+        <v>3436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17512</v>
+        <v>18978</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0223117330900982</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01071871703605718</v>
+        <v>0.009187299227218606</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04682523502377592</v>
+        <v>0.05074651738380297</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5971</v>
+        <v>6549</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002783678004741905</v>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01542703527207866</v>
+        <v>0.01692081533653526</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -6181,19 +6181,19 @@
         <v>9422</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4244</v>
+        <v>4586</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17904</v>
+        <v>18167</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01238014995840411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005576277568457</v>
+        <v>0.006026704571262009</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02352685010283164</v>
+        <v>0.0238720243275689</v>
       </c>
     </row>
     <row r="23">
@@ -6210,19 +6210,19 @@
         <v>27225</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17660</v>
+        <v>18671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39615</v>
+        <v>39728</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07279783561423965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04722273290802677</v>
+        <v>0.04992384260054773</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1059271377010663</v>
+        <v>0.1062292690205214</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -6231,19 +6231,19 @@
         <v>29424</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19758</v>
+        <v>19629</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41784</v>
+        <v>41747</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07602173289353434</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05104995323576684</v>
+        <v>0.05071532874434332</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1079568642231871</v>
+        <v>0.1078612890038826</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>51</v>
@@ -6252,19 +6252,19 @@
         <v>56649</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>42299</v>
+        <v>43949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>73444</v>
+        <v>73545</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07443744609758818</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05558219589805913</v>
+        <v>0.05775032315590832</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09650702678545027</v>
+        <v>0.0966397157490531</v>
       </c>
     </row>
     <row r="24">
@@ -6281,19 +6281,19 @@
         <v>214004</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>193517</v>
+        <v>194274</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>233280</v>
+        <v>232907</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5722305919980765</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5174508419380222</v>
+        <v>0.5194741748539978</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6237721804469794</v>
+        <v>0.6227747853120276</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>212</v>
@@ -6302,19 +6302,19 @@
         <v>220179</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>200275</v>
+        <v>200207</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>238432</v>
+        <v>241250</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5688765472027154</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5174491111695081</v>
+        <v>0.5172734948970473</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6160374072641118</v>
+        <v>0.6233180003732667</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>408</v>
@@ -6323,19 +6323,19 @@
         <v>434183</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>407009</v>
+        <v>407410</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>462561</v>
+        <v>462373</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5705247910585075</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5348178547727613</v>
+        <v>0.5353449085913626</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6078139878816953</v>
+        <v>0.6075668644005039</v>
       </c>
     </row>
     <row r="25">
@@ -6352,19 +6352,19 @@
         <v>113646</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>95230</v>
+        <v>97083</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132793</v>
+        <v>132159</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3038797427219922</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2546366627296858</v>
+        <v>0.2595935324387575</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3550798233414844</v>
+        <v>0.3533845314844702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>122</v>
@@ -6373,19 +6373,19 @@
         <v>129635</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>110945</v>
+        <v>110994</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>148502</v>
+        <v>148759</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3349379265978793</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2866488450435338</v>
+        <v>0.2867754653413019</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3836842844004971</v>
+        <v>0.3843493227973722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>231</v>
@@ -6394,19 +6394,19 @@
         <v>243281</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>216617</v>
+        <v>217437</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>268565</v>
+        <v>270092</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3196753216331824</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2846384624160487</v>
+        <v>0.2857158276461131</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3528999458244686</v>
+        <v>0.3549058935489314</v>
       </c>
     </row>
     <row r="26">
@@ -6423,19 +6423,19 @@
         <v>10763</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5277</v>
+        <v>5260</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19524</v>
+        <v>21316</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02878009657559353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01411078993761763</v>
+        <v>0.01406532300652965</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05220471107312735</v>
+        <v>0.05699661955536869</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -6444,19 +6444,19 @@
         <v>6727</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2829</v>
+        <v>2860</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14753</v>
+        <v>16778</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01738011530112899</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007310235134097779</v>
+        <v>0.007388675581214864</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03811710708206844</v>
+        <v>0.04334952908312699</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -6465,19 +6465,19 @@
         <v>17490</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9991</v>
+        <v>10180</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29445</v>
+        <v>30041</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02298229125231779</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01312773380604117</v>
+        <v>0.01337732007227481</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03869187907000222</v>
+        <v>0.03947504853601048</v>
       </c>
     </row>
     <row r="27">
@@ -6569,19 +6569,19 @@
         <v>3445</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9504</v>
+        <v>10581</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01620330064610974</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00499792994849766</v>
+        <v>0.004909695870165938</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0447000383908901</v>
+        <v>0.04976508011785453</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -6590,19 +6590,19 @@
         <v>3840</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8925</v>
+        <v>8672</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01748903781940891</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004433814011330362</v>
+        <v>0.004341591022679798</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04064262427519452</v>
+        <v>0.03949278249483801</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -6611,19 +6611,19 @@
         <v>7286</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2961</v>
+        <v>3224</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14138</v>
+        <v>13980</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01685654082830552</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006851687108032844</v>
+        <v>0.007458710597380206</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0327115715453293</v>
+        <v>0.03234556315562722</v>
       </c>
     </row>
     <row r="29">
@@ -6640,19 +6640,19 @@
         <v>29710</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20371</v>
+        <v>20496</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43754</v>
+        <v>42338</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.139732808162126</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09581266738818774</v>
+        <v>0.09639647797884425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2057870251986712</v>
+        <v>0.1991262844595599</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -6661,19 +6661,19 @@
         <v>7874</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3755</v>
+        <v>3804</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13990</v>
+        <v>14542</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03585685864635958</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0170989047196736</v>
+        <v>0.0173222731500046</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06370885697434529</v>
+        <v>0.06622284016532391</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -6682,19 +6682,19 @@
         <v>37584</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26398</v>
+        <v>27011</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52362</v>
+        <v>53520</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08695690217091762</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06107628945158643</v>
+        <v>0.062495859058817</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1211506970286829</v>
+        <v>0.1238293373751597</v>
       </c>
     </row>
     <row r="30">
@@ -6711,19 +6711,19 @@
         <v>115506</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>100171</v>
+        <v>99191</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>130679</v>
+        <v>129256</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5432570188501989</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4711313773775074</v>
+        <v>0.4665238784852159</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6146195612283856</v>
+        <v>0.607925941386088</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>118</v>
@@ -6732,19 +6732,19 @@
         <v>123599</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108526</v>
+        <v>108508</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>137706</v>
+        <v>137810</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5628580357723217</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4942209143798848</v>
+        <v>0.4941351364977676</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6271002953705863</v>
+        <v>0.6275766337560774</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>225</v>
@@ -6753,19 +6753,19 @@
         <v>239105</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>216970</v>
+        <v>217692</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>259443</v>
+        <v>258702</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5532156419119985</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5020034852225911</v>
+        <v>0.5036726417857137</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6002727021049882</v>
+        <v>0.598558032555463</v>
       </c>
     </row>
     <row r="31">
@@ -6782,19 +6782,19 @@
         <v>56584</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>43372</v>
+        <v>45547</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>69583</v>
+        <v>71011</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.266130702817814</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2039912840076036</v>
+        <v>0.2142186693132889</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3272654498035961</v>
+        <v>0.3339819358861891</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>78</v>
@@ -6803,19 +6803,19 @@
         <v>79598</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>65871</v>
+        <v>66439</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>94453</v>
+        <v>94709</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3624839776599916</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2999717543944838</v>
+        <v>0.3025578686185911</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.430131789505353</v>
+        <v>0.4312973196969414</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>132</v>
@@ -6824,19 +6824,19 @@
         <v>136182</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>117560</v>
+        <v>116582</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>156726</v>
+        <v>156555</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3150845886664724</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2719977081899124</v>
+        <v>0.2697341604351658</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.362616467912396</v>
+        <v>0.3622207822252192</v>
       </c>
     </row>
     <row r="32">
@@ -6853,19 +6853,19 @@
         <v>7373</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3071</v>
+        <v>2983</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14717</v>
+        <v>13214</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0346761695237513</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01444242220148523</v>
+        <v>0.01402947587157369</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06921809277325577</v>
+        <v>0.06214932926880089</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -6874,19 +6874,19 @@
         <v>4680</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11459</v>
+        <v>12135</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02131209010191819</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004576686001748931</v>
+        <v>0.004611688344851132</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05218463667647981</v>
+        <v>0.05526209890866338</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -6895,19 +6895,19 @@
         <v>12053</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6033</v>
+        <v>6808</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21303</v>
+        <v>20946</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.027886326422306</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01395872911145825</v>
+        <v>0.01575143147374979</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04928951578798377</v>
+        <v>0.04846359876388952</v>
       </c>
     </row>
     <row r="33">
@@ -6999,19 +6999,19 @@
         <v>2918</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7856</v>
+        <v>9070</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01068958883756329</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003265890214395521</v>
+        <v>0.003280190528708111</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02877758391738698</v>
+        <v>0.03322440749258564</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5654</v>
+        <v>5480</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003537932446550574</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0202620311582751</v>
+        <v>0.01963915625883986</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -7041,19 +7041,19 @@
         <v>3905</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9120</v>
+        <v>9651</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007074499651254487</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00178051359274276</v>
+        <v>0.001773903032849684</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01652053664268886</v>
+        <v>0.01748170572315786</v>
       </c>
     </row>
     <row r="35">
@@ -7070,19 +7070,19 @@
         <v>39056</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>27493</v>
+        <v>28574</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>51659</v>
+        <v>51525</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1430665599693403</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1007077724697245</v>
+        <v>0.1046674110195016</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1892300763132503</v>
+        <v>0.1887392158292355</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>31</v>
@@ -7091,19 +7091,19 @@
         <v>32707</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>22999</v>
+        <v>23035</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>44523</v>
+        <v>46266</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1172050706110505</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08241802310533813</v>
+        <v>0.08254640424744573</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1595497925915155</v>
+        <v>0.1657946200364475</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>70</v>
@@ -7112,19 +7112,19 @@
         <v>71763</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>56908</v>
+        <v>57559</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>89487</v>
+        <v>89183</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1299938415095326</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1030856960997679</v>
+        <v>0.1042646725430443</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1621002053859353</v>
+        <v>0.1615502029297108</v>
       </c>
     </row>
     <row r="36">
@@ -7141,19 +7141,19 @@
         <v>161537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>143240</v>
+        <v>143598</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>176627</v>
+        <v>177410</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5917219280058621</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.524698498899546</v>
+        <v>0.5260115098749991</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6470000735970479</v>
+        <v>0.6498683827692994</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>160</v>
@@ -7162,19 +7162,19 @@
         <v>166169</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>149629</v>
+        <v>150562</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>182311</v>
+        <v>183522</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5954694210937206</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5361995177174884</v>
+        <v>0.539542146869227</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.65331490494639</v>
+        <v>0.6576562106943367</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>312</v>
@@ -7183,19 +7183,19 @@
         <v>327705</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>304246</v>
+        <v>301787</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>352191</v>
+        <v>350010</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5936162474469792</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5511231464617203</v>
+        <v>0.5466672162317794</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6379715915247196</v>
+        <v>0.6340218603986103</v>
       </c>
     </row>
     <row r="37">
@@ -7212,19 +7212,19 @@
         <v>66527</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>52769</v>
+        <v>53003</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>81845</v>
+        <v>83151</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2436952052140328</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1932984488945418</v>
+        <v>0.1941538482340835</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2998050402846278</v>
+        <v>0.3045887748958149</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>69</v>
@@ -7233,19 +7233,19 @@
         <v>72198</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57443</v>
+        <v>57653</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>87937</v>
+        <v>87010</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2587229852665179</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2058481510973676</v>
+        <v>0.2066018356633537</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3151255408691569</v>
+        <v>0.3118011247605484</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>132</v>
@@ -7254,19 +7254,19 @@
         <v>138725</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>119337</v>
+        <v>118379</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>161105</v>
+        <v>159688</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.251291594384832</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2161715887227886</v>
+        <v>0.2144361615343438</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.291832076630044</v>
+        <v>0.2892655267377028</v>
       </c>
     </row>
     <row r="38">
@@ -7283,19 +7283,19 @@
         <v>2956</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8979</v>
+        <v>8096</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01082671797320147</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003466806468641058</v>
+        <v>0.0034535114995121</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03289118257583761</v>
+        <v>0.02965531347869691</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -7304,19 +7304,19 @@
         <v>6994</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2922</v>
+        <v>2959</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13212</v>
+        <v>13863</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02506459058216047</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01046944079464506</v>
+        <v>0.01060342201321381</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04734658719207645</v>
+        <v>0.04967821508499394</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>10</v>
@@ -7325,19 +7325,19 @@
         <v>9950</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4989</v>
+        <v>4970</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>17295</v>
+        <v>17738</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01802381700740176</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.009037367493610348</v>
+        <v>0.009003050570591925</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03132852615479251</v>
+        <v>0.03213205833362801</v>
       </c>
     </row>
     <row r="39">
@@ -7429,19 +7429,19 @@
         <v>6787</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2289</v>
+        <v>2550</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15762</v>
+        <v>17803</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01030433841433436</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003474736205816811</v>
+        <v>0.003871815367185685</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02393032632909659</v>
+        <v>0.02702772736969091</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>13</v>
@@ -7450,19 +7450,19 @@
         <v>13490</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7610</v>
+        <v>7708</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>22730</v>
+        <v>23562</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01952361801646269</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01101461591224675</v>
+        <v>0.01115544775532833</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03289736818512323</v>
+        <v>0.03410090242627593</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>18</v>
@@ -7471,19 +7471,19 @@
         <v>20277</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>12069</v>
+        <v>12365</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>30319</v>
+        <v>32137</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01502416405334453</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008942588871867505</v>
+        <v>0.009161993913211821</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02246499502593337</v>
+        <v>0.0238121801814133</v>
       </c>
     </row>
     <row r="41">
@@ -7500,19 +7500,19 @@
         <v>73037</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>57843</v>
+        <v>57794</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>95003</v>
+        <v>91007</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1108850680857399</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08781620235646395</v>
+        <v>0.08774292464099023</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1442329708499568</v>
+        <v>0.1381661623184121</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>49</v>
@@ -7521,19 +7521,19 @@
         <v>52534</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>39147</v>
+        <v>38916</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>67940</v>
+        <v>68179</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07603261193301435</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05665824464013448</v>
+        <v>0.05632331977091966</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09832992052919787</v>
+        <v>0.09867667206177036</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>116</v>
@@ -7542,19 +7542,19 @@
         <v>125571</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>105641</v>
+        <v>103744</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>150611</v>
+        <v>150807</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09304229476382692</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07827507220429443</v>
+        <v>0.07686913676105267</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1115953786518684</v>
+        <v>0.1117407898348251</v>
       </c>
     </row>
     <row r="42">
@@ -7571,19 +7571,19 @@
         <v>347290</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>320802</v>
+        <v>320803</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>373440</v>
+        <v>374585</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.527254431293409</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4870403511003452</v>
+        <v>0.4870413029576602</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5669547132306535</v>
+        <v>0.5686930436019333</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>345</v>
@@ -7592,19 +7592,19 @@
         <v>377848</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>353513</v>
+        <v>352070</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>406630</v>
+        <v>407510</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5468618377650669</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5116419883846179</v>
+        <v>0.5095540475032722</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5885187846587471</v>
+        <v>0.5897919339095481</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>668</v>
@@ -7613,19 +7613,19 @@
         <v>725138</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>688913</v>
+        <v>688374</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>762689</v>
+        <v>765785</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5372924758883534</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5104513387801602</v>
+        <v>0.5100519834932309</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5651160843567563</v>
+        <v>0.5674101409021791</v>
       </c>
     </row>
     <row r="43">
@@ -7642,19 +7642,19 @@
         <v>214426</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>191248</v>
+        <v>189420</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>241293</v>
+        <v>240834</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3255399383451369</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2903515434899945</v>
+        <v>0.2875761640440727</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3663291590607248</v>
+        <v>0.3656333945992994</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>208</v>
@@ -7663,19 +7663,19 @@
         <v>224919</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>201290</v>
+        <v>198133</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>251204</v>
+        <v>250241</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3255274482391249</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.291328044345155</v>
+        <v>0.2867596241209448</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3635689876957378</v>
+        <v>0.3621756300624629</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>410</v>
@@ -7684,19 +7684,19 @@
         <v>439345</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>400869</v>
+        <v>403301</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>473266</v>
+        <v>473581</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3255335440144372</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2970249099740158</v>
+        <v>0.2988264475983808</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3506672528043394</v>
+        <v>0.3509009737106161</v>
       </c>
     </row>
     <row r="44">
@@ -7713,19 +7713,19 @@
         <v>17136</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10057</v>
+        <v>10380</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>27235</v>
+        <v>26577</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02601622386137978</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01526864902261812</v>
+        <v>0.01575950641561104</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04134847636271423</v>
+        <v>0.04034943464953176</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>19</v>
@@ -7734,19 +7734,19 @@
         <v>22148</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14050</v>
+        <v>14025</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>33840</v>
+        <v>33475</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03205448404633104</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02033500102341562</v>
+        <v>0.02029867736708165</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04897733180288764</v>
+        <v>0.04844879172681701</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>36</v>
@@ -7755,19 +7755,19 @@
         <v>39284</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>27591</v>
+        <v>29342</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>53917</v>
+        <v>55371</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02910752128003796</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02044324977153441</v>
+        <v>0.02174121325969512</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03995021295570873</v>
+        <v>0.04102715864043014</v>
       </c>
     </row>
     <row r="45">
@@ -7859,19 +7859,19 @@
         <v>6210</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2118</v>
+        <v>2106</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>15680</v>
+        <v>14590</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007970777091505158</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002717979531886024</v>
+        <v>0.002703295561870135</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02012588172222755</v>
+        <v>0.01872625086677894</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -7893,19 +7893,19 @@
         <v>6210</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>15981</v>
+        <v>14164</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.003876532643268211</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00127037248227725</v>
+        <v>0.001271645100747003</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.009975838747063327</v>
+        <v>0.008841704899009694</v>
       </c>
     </row>
     <row r="47">
@@ -7922,19 +7922,19 @@
         <v>30196</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>21225</v>
+        <v>20864</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>42621</v>
+        <v>42423</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03875809116111519</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02724270905491809</v>
+        <v>0.02678012559270671</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0547057096312447</v>
+        <v>0.05445168836708265</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>32</v>
@@ -7943,19 +7943,19 @@
         <v>34242</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>23257</v>
+        <v>24498</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>48267</v>
+        <v>48057</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04161312113235369</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02826431980654917</v>
+        <v>0.02977197047337409</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05865818790685656</v>
+        <v>0.05840234664732776</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>61</v>
@@ -7964,19 +7964,19 @@
         <v>64438</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>51558</v>
+        <v>49106</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>82001</v>
+        <v>82806</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04022459693277339</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03218437209107418</v>
+        <v>0.0306538404586729</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0511879316121626</v>
+        <v>0.05169061896170111</v>
       </c>
     </row>
     <row r="48">
@@ -7993,19 +7993,19 @@
         <v>323532</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>296035</v>
+        <v>297567</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>350137</v>
+        <v>354008</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4152652505327233</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3799718886759325</v>
+        <v>0.3819372952336045</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4494139295467659</v>
+        <v>0.4543817938572694</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>308</v>
@@ -8014,19 +8014,19 @@
         <v>333956</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>304467</v>
+        <v>304919</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>364464</v>
+        <v>362525</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4058514234417372</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3700139510445541</v>
+        <v>0.3705630660738574</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4429269139644892</v>
+        <v>0.4405706281551772</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>610</v>
@@ -8035,19 +8035,19 @@
         <v>657489</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>614862</v>
+        <v>612381</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>698327</v>
+        <v>692864</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.4104297735319916</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3838207328139196</v>
+        <v>0.3822718615933318</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4359226464989605</v>
+        <v>0.4325122597970783</v>
       </c>
     </row>
     <row r="49">
@@ -8064,19 +8064,19 @@
         <v>380705</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>351741</v>
+        <v>350098</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>409295</v>
+        <v>408639</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4886486982530059</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4514715010033422</v>
+        <v>0.4493629143538205</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.5253449703503519</v>
+        <v>0.5245032890887401</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>380</v>
@@ -8085,19 +8085,19 @@
         <v>415942</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>384517</v>
+        <v>388226</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>444165</v>
+        <v>445629</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.5054865128149472</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.4672961700679237</v>
+        <v>0.4718041808903006</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.5397861242838646</v>
+        <v>0.5415653376140587</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>727</v>
@@ -8106,19 +8106,19 @@
         <v>796647</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>757972</v>
+        <v>758663</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>840998</v>
+        <v>841768</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4972975574544685</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4731552499079297</v>
+        <v>0.4735867271731717</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.5249834603635434</v>
+        <v>0.5254639695238383</v>
       </c>
     </row>
     <row r="50">
@@ -8135,19 +8135,19 @@
         <v>38454</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>27119</v>
+        <v>26546</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>55012</v>
+        <v>53018</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.04935718296165039</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03480787451845145</v>
+        <v>0.03407258284731433</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.07060974713673719</v>
+        <v>0.06805021757311527</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>36</v>
@@ -8156,19 +8156,19 @@
         <v>38714</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>28267</v>
+        <v>27241</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>53578</v>
+        <v>52338</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.0470489426109619</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.03435214627714167</v>
+        <v>0.03310514526418455</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.06511256705492788</v>
+        <v>0.06360503600470309</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>70</v>
@@ -8177,19 +8177,19 @@
         <v>77168</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>61210</v>
+        <v>61405</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>96487</v>
+        <v>98337</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.04817153943749831</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.03820989933456034</v>
+        <v>0.0383314703623978</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.06023103974823615</v>
+        <v>0.06138553679705363</v>
       </c>
     </row>
     <row r="51">
@@ -8281,19 +8281,19 @@
         <v>49085</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>36842</v>
+        <v>35373</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>64844</v>
+        <v>67201</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01435384249903764</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01077366585964429</v>
+        <v>0.01034405389209278</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01896216345051411</v>
+        <v>0.01965139504176087</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>44</v>
@@ -8302,19 +8302,19 @@
         <v>46047</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>32400</v>
+        <v>34741</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>59687</v>
+        <v>62740</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01297311499606876</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.009128335098769428</v>
+        <v>0.009787890480735412</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01681610253701142</v>
+        <v>0.01767637575087857</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>88</v>
@@ -8323,19 +8323,19 @@
         <v>95132</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>77524</v>
+        <v>75388</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>116551</v>
+        <v>116554</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01365062810487831</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01112403607845946</v>
+        <v>0.01081762146168324</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01672406987517381</v>
+        <v>0.01672460933593853</v>
       </c>
     </row>
     <row r="53">
@@ -8352,19 +8352,19 @@
         <v>326841</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>289911</v>
+        <v>290775</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>359540</v>
+        <v>363090</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.09557704525412968</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.08477792157690169</v>
+        <v>0.08503031128061581</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1051392095651348</v>
+        <v>0.1061773852231035</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>243</v>
@@ -8373,19 +8373,19 @@
         <v>260167</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>231657</v>
+        <v>229238</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>294280</v>
+        <v>294543</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.07329913951026096</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.0652668163500683</v>
+        <v>0.06458534536151758</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.08291011477750307</v>
+        <v>0.08298419451569294</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>549</v>
@@ -8394,19 +8394,19 @@
         <v>587007</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>538851</v>
+        <v>540455</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>636536</v>
+        <v>635691</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.08423074849598766</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.07732063155224403</v>
+        <v>0.07755078693491504</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.09133763336457348</v>
+        <v>0.0912164954275327</v>
       </c>
     </row>
     <row r="54">
@@ -8423,19 +8423,19 @@
         <v>1780291</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1717957</v>
+        <v>1727231</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1839322</v>
+        <v>1843080</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.5206050133886745</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.5023769289393248</v>
+        <v>0.5050889440039725</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.5378672361005774</v>
+        <v>0.5389662769687268</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1721</v>
@@ -8444,19 +8444,19 @@
         <v>1851828</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1792450</v>
+        <v>1791535</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1912315</v>
+        <v>1911056</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.5217325970274397</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.5050035292872325</v>
+        <v>0.5047456100081269</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.5387741844074574</v>
+        <v>0.5384193437392635</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3401</v>
@@ -8465,19 +8465,19 @@
         <v>3632119</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>3549355</v>
+        <v>3544785</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>3712199</v>
+        <v>3717480</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.5211792998019553</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.5093033111738903</v>
+        <v>0.5086476028412343</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.53267005585288</v>
+        <v>0.5334278746945962</v>
       </c>
     </row>
     <row r="55">
@@ -8494,19 +8494,19 @@
         <v>1169364</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1110988</v>
+        <v>1106786</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1230336</v>
+        <v>1223344</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3419534207075534</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3248826803383123</v>
+        <v>0.3236541335548588</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3597834540130954</v>
+        <v>0.3577387881056608</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1190</v>
@@ -8515,19 +8515,19 @@
         <v>1290376</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1234773</v>
+        <v>1235454</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1350655</v>
+        <v>1352737</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3635495352610192</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.3478840467093093</v>
+        <v>0.3480756882173922</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3805324345336912</v>
+        <v>0.3811189188844435</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2275</v>
@@ -8536,19 +8536,19 @@
         <v>2459740</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2378464</v>
+        <v>2379275</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2543748</v>
+        <v>2547506</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3529524763352975</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3412900677774935</v>
+        <v>0.3414063826181869</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.365006999476959</v>
+        <v>0.3655462290262589</v>
       </c>
     </row>
     <row r="56">
@@ -8565,19 +8565,19 @@
         <v>94077</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>76278</v>
+        <v>73739</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>115735</v>
+        <v>115925</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.02751067815060487</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02230587306060556</v>
+        <v>0.0215633738595142</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03384393091724246</v>
+        <v>0.0338994435752212</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>92</v>
@@ -8586,19 +8586,19 @@
         <v>100964</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>81419</v>
+        <v>82041</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>123677</v>
+        <v>124529</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.02844561320521137</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.0229389745645813</v>
+        <v>0.02311409850135005</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.03484472991829077</v>
+        <v>0.0350847522989565</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>179</v>
@@ -8607,19 +8607,19 @@
         <v>195041</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>170330</v>
+        <v>166026</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>225464</v>
+        <v>223674</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.02798684726188116</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.02444091806212296</v>
+        <v>0.02382329810638692</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.03235226144538581</v>
+        <v>0.03209543361014519</v>
       </c>
     </row>
     <row r="57">
@@ -8955,19 +8955,19 @@
         <v>18086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10567</v>
+        <v>10628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27711</v>
+        <v>28063</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0615667007184721</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03597050716594218</v>
+        <v>0.03618039800563498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09433011692298091</v>
+        <v>0.09552929090416866</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -8976,19 +8976,19 @@
         <v>12317</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6925</v>
+        <v>6937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20215</v>
+        <v>21011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04282567961816369</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02407784447923105</v>
+        <v>0.02412045511704989</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0702831337555764</v>
+        <v>0.07305328595210223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -8997,19 +8997,19 @@
         <v>30403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21768</v>
+        <v>20901</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42509</v>
+        <v>43713</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05229520720359569</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03744277190395135</v>
+        <v>0.03595121251850882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0731179248149673</v>
+        <v>0.07518921317721407</v>
       </c>
     </row>
     <row r="5">
@@ -9026,19 +9026,19 @@
         <v>35135</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24526</v>
+        <v>24024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49583</v>
+        <v>49150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1196054355710382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08348929277060872</v>
+        <v>0.08178084999401579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1687861663500422</v>
+        <v>0.1673117325184912</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -9047,19 +9047,19 @@
         <v>27374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18971</v>
+        <v>18372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40325</v>
+        <v>38319</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09517647971478567</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06595816629243183</v>
+        <v>0.06387465627726986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1402020036092042</v>
+        <v>0.1332272149593255</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -9068,19 +9068,19 @@
         <v>62510</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48374</v>
+        <v>48528</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79446</v>
+        <v>80032</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.107520026532535</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08320620052712376</v>
+        <v>0.08347135838898577</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.136650158704805</v>
+        <v>0.1376591360760274</v>
       </c>
     </row>
     <row r="6">
@@ -9097,19 +9097,19 @@
         <v>160854</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142216</v>
+        <v>142105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178842</v>
+        <v>179293</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5475660880751922</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.484122921725887</v>
+        <v>0.4837444540909706</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6088011987213467</v>
+        <v>0.6103356425690133</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>158</v>
@@ -9118,19 +9118,19 @@
         <v>163742</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>146892</v>
+        <v>145486</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180870</v>
+        <v>181010</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5693038958449874</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5107193976711953</v>
+        <v>0.5058304905489911</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6288542101195113</v>
+        <v>0.6293424847679482</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>303</v>
@@ -9139,19 +9139,19 @@
         <v>324596</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>300125</v>
+        <v>302113</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>349283</v>
+        <v>348725</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5583201415862877</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5162303560548279</v>
+        <v>0.5196482387514418</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6007838215959056</v>
+        <v>0.5998243609344955</v>
       </c>
     </row>
     <row r="7">
@@ -9168,19 +9168,19 @@
         <v>73212</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58507</v>
+        <v>58286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89371</v>
+        <v>89541</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2492222033307163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1991669440074857</v>
+        <v>0.1984113838375944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3042298256024586</v>
+        <v>0.304808014759733</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -9189,19 +9189,19 @@
         <v>78620</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64024</v>
+        <v>63219</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94273</v>
+        <v>94787</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2733498180931391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2226002118765288</v>
+        <v>0.219802788087882</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3277710946107611</v>
+        <v>0.3295588038137451</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -9210,19 +9210,19 @@
         <v>151832</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131622</v>
+        <v>130463</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>175034</v>
+        <v>174960</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2611585339394876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.226396932429024</v>
+        <v>0.224402369565095</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3010671203414202</v>
+        <v>0.3009401070229141</v>
       </c>
     </row>
     <row r="8">
@@ -9239,19 +9239,19 @@
         <v>6474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2731</v>
+        <v>2719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13777</v>
+        <v>14305</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02203957230458108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009298055126218684</v>
+        <v>0.009255932070715843</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04689903536930906</v>
+        <v>0.04869681680030844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -9260,19 +9260,19 @@
         <v>5564</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1878</v>
+        <v>1892</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13307</v>
+        <v>13582</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01934412672892414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006530143162954788</v>
+        <v>0.006579459864484778</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0462661857864172</v>
+        <v>0.04722306855077094</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -9281,19 +9281,19 @@
         <v>12038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6115</v>
+        <v>6155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20499</v>
+        <v>21210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02070609073809406</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01051890292565759</v>
+        <v>0.01058716460050475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03525970443250685</v>
+        <v>0.03648288233704578</v>
       </c>
     </row>
     <row r="9">
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5636</v>
+        <v>6295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003575716738058691</v>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01123734485906784</v>
+        <v>0.01255065861349394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -9406,19 +9406,19 @@
         <v>3880</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9274</v>
+        <v>9770</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007446818795513867</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001886269853840328</v>
+        <v>0.001890472981854102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01780142022196384</v>
+        <v>0.01875244760838566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -9427,19 +9427,19 @@
         <v>5673</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1900</v>
+        <v>1972</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11420</v>
+        <v>11336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005548045618454615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001858095424241161</v>
+        <v>0.001928707561964688</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01116849298334618</v>
+        <v>0.0110856421086615</v>
       </c>
     </row>
     <row r="11">
@@ -9456,19 +9456,19 @@
         <v>34779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24598</v>
+        <v>24390</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48174</v>
+        <v>48444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06934247817460161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04904322552030341</v>
+        <v>0.04862791229663026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09604935963790275</v>
+        <v>0.09658761331641419</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -9477,19 +9477,19 @@
         <v>41406</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30553</v>
+        <v>30933</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54761</v>
+        <v>56710</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07947609171834939</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05864490124678712</v>
+        <v>0.05937391548918896</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1051091315049975</v>
+        <v>0.1088509808284927</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -9498,19 +9498,19 @@
         <v>76185</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59736</v>
+        <v>60556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92812</v>
+        <v>93702</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07450556051096455</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05841877641717108</v>
+        <v>0.05922048645307935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09076547649730088</v>
+        <v>0.09163571829352621</v>
       </c>
     </row>
     <row r="12">
@@ -9527,19 +9527,19 @@
         <v>262391</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>239991</v>
+        <v>240770</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>284294</v>
+        <v>285389</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5231517456451458</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4784902160680489</v>
+        <v>0.4800429251875897</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5668205685889841</v>
+        <v>0.5690044439440631</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>257</v>
@@ -9548,19 +9548,19 @@
         <v>275213</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>252239</v>
+        <v>251977</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>298766</v>
+        <v>298388</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.528250657727345</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4841541475022131</v>
+        <v>0.4836508871093782</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5734590887204389</v>
+        <v>0.5727333412263825</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>508</v>
@@ -9569,19 +9569,19 @@
         <v>537604</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>506405</v>
+        <v>500620</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>572437</v>
+        <v>569482</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5257496444886943</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4952390615974808</v>
+        <v>0.4895812139713482</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5598151103152514</v>
+        <v>0.556925465488908</v>
       </c>
     </row>
     <row r="13">
@@ -9598,19 +9598,19 @@
         <v>188418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167368</v>
+        <v>164883</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210713</v>
+        <v>209200</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3756640858243428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3336953809372963</v>
+        <v>0.3287409623036748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4201153005779967</v>
+        <v>0.417098760940898</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -9619,19 +9619,19 @@
         <v>178696</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156494</v>
+        <v>155822</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201561</v>
+        <v>201607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3429936557406464</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3003793688605424</v>
+        <v>0.2990889693465248</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3868808381066972</v>
+        <v>0.386970668210102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>336</v>
@@ -9640,19 +9640,19 @@
         <v>367113</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>335252</v>
+        <v>336201</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>398144</v>
+        <v>399149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.359018481592614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3278594317426222</v>
+        <v>0.3287882647632647</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3893652164856034</v>
+        <v>0.3903477136118116</v>
       </c>
     </row>
     <row r="14">
@@ -9669,19 +9669,19 @@
         <v>14177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7500</v>
+        <v>7920</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24265</v>
+        <v>24097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02826597361785114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01495436387245053</v>
+        <v>0.01579139754252519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04837866690737617</v>
+        <v>0.04804519457934529</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -9690,19 +9690,19 @@
         <v>21794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13257</v>
+        <v>13005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33415</v>
+        <v>32582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04183277601814532</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02544493073372488</v>
+        <v>0.02496191670119587</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06413749423348591</v>
+        <v>0.06253804754621223</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -9711,19 +9711,19 @@
         <v>35971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25651</v>
+        <v>24745</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51180</v>
+        <v>49721</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03517826778927258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02508569002544943</v>
+        <v>0.02419960912369847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05005178667681157</v>
+        <v>0.04862452501347748</v>
       </c>
     </row>
     <row r="15">
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6096</v>
+        <v>6551</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00559596007225781</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01812644553159781</v>
+        <v>0.0194802956603593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6709</v>
+        <v>6476</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002873792131409947</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01024418368670136</v>
+        <v>0.009888779898326833</v>
       </c>
     </row>
     <row r="17">
@@ -9878,19 +9878,19 @@
         <v>41010</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31328</v>
+        <v>30578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52621</v>
+        <v>53619</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1287322822906431</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09834158564570181</v>
+        <v>0.09598577921542364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1651806698805574</v>
+        <v>0.1683150489997305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -9899,19 +9899,19 @@
         <v>38021</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27170</v>
+        <v>27157</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50819</v>
+        <v>51283</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.113052428084584</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0807880678835086</v>
+        <v>0.08075041406621124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.151107137561484</v>
+        <v>0.1524869969211471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -9920,19 +9920,19 @@
         <v>79030</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63867</v>
+        <v>64132</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>97484</v>
+        <v>97211</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1206799300477424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09752616763404519</v>
+        <v>0.09793053777261768</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1488598615991453</v>
+        <v>0.1484425575806899</v>
       </c>
     </row>
     <row r="18">
@@ -9949,19 +9949,19 @@
         <v>235166</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>220031</v>
+        <v>218215</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>248309</v>
+        <v>248519</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7382033302504044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6906943188323749</v>
+        <v>0.6849946117526247</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7794624364931079</v>
+        <v>0.7801217399158978</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>240</v>
@@ -9970,19 +9970,19 @@
         <v>244067</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>224635</v>
+        <v>227384</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>258997</v>
+        <v>261044</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7257237478262751</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6679429611389996</v>
+        <v>0.6761167778139811</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7701173272840615</v>
+        <v>0.7762013646057812</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>488</v>
@@ -9991,19 +9991,19 @@
         <v>479233</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>455984</v>
+        <v>458493</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>499208</v>
+        <v>501340</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7317944700529309</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6962921892462649</v>
+        <v>0.7001243388917245</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7622963003885339</v>
+        <v>0.7655518510609685</v>
       </c>
     </row>
     <row r="19">
@@ -10020,19 +10020,19 @@
         <v>42390</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31427</v>
+        <v>32292</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54899</v>
+        <v>55705</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1330643874589525</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0986508354470861</v>
+        <v>0.1013681720117887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.172332979962047</v>
+        <v>0.1748623993010421</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -10041,19 +10041,19 @@
         <v>52339</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41443</v>
+        <v>40997</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68807</v>
+        <v>66145</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1556278640168831</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1232275769992849</v>
+        <v>0.1219039892614693</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.204593225617095</v>
+        <v>0.1966786047667788</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -10062,19 +10062,19 @@
         <v>94729</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78049</v>
+        <v>78378</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113430</v>
+        <v>112208</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1446518077679168</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1191814709383448</v>
+        <v>0.1196834978968649</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1732086846500195</v>
+        <v>0.1713425299822099</v>
       </c>
     </row>
     <row r="20">
@@ -10213,19 +10213,19 @@
         <v>9443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4625</v>
+        <v>4070</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18661</v>
+        <v>18268</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0255904697197068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01253440892265441</v>
+        <v>0.01103133209352812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05057423913564501</v>
+        <v>0.04950708406133258</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -10234,19 +10234,19 @@
         <v>6949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2980</v>
+        <v>2893</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13847</v>
+        <v>13488</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01794187743947398</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00769494989467464</v>
+        <v>0.007469425953997453</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03575342576264905</v>
+        <v>0.03482823783202767</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -10255,19 +10255,19 @@
         <v>16391</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9567</v>
+        <v>9537</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27752</v>
+        <v>26672</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02167365819202827</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01265033701277224</v>
+        <v>0.01261023928770803</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03669592585777109</v>
+        <v>0.03526779202917828</v>
       </c>
     </row>
     <row r="23">
@@ -10284,19 +10284,19 @@
         <v>18509</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11028</v>
+        <v>11804</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28424</v>
+        <v>28808</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05016125972301271</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02988656581744083</v>
+        <v>0.03198903183296648</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07703247304024731</v>
+        <v>0.0780724089326343</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -10305,19 +10305,19 @@
         <v>23227</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14905</v>
+        <v>15163</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34612</v>
+        <v>34001</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0599734782648174</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03848637165763834</v>
+        <v>0.03915108067628537</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08937229381133609</v>
+        <v>0.08779262343154323</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>40</v>
@@ -10326,19 +10326,19 @@
         <v>41736</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30351</v>
+        <v>29922</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56036</v>
+        <v>55410</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0551860550433186</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04013286155342321</v>
+        <v>0.03956461779761411</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07409545660373579</v>
+        <v>0.0732669898020842</v>
       </c>
     </row>
     <row r="24">
@@ -10355,19 +10355,19 @@
         <v>240523</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>221271</v>
+        <v>221656</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>259216</v>
+        <v>259317</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6518447283282027</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.599670183106451</v>
+        <v>0.600711975518856</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7025048302039231</v>
+        <v>0.7027780114852806</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>218</v>
@@ -10376,19 +10376,19 @@
         <v>234596</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>214426</v>
+        <v>215014</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>253951</v>
+        <v>255622</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6057479562472635</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5536680048080421</v>
+        <v>0.5551848128685208</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6557236611343739</v>
+        <v>0.6600402465967808</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>448</v>
@@ -10397,19 +10397,19 @@
         <v>475119</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>447568</v>
+        <v>448715</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>501998</v>
+        <v>502359</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6282387676938497</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5918084736627112</v>
+        <v>0.5933256380362351</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6637809512412458</v>
+        <v>0.6642576664856984</v>
       </c>
     </row>
     <row r="25">
@@ -10426,19 +10426,19 @@
         <v>92765</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>74671</v>
+        <v>76323</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>108904</v>
+        <v>109497</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2514041575774286</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.202366578256156</v>
+        <v>0.2068440038177091</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2951428519178844</v>
+        <v>0.2967488765124436</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>106</v>
@@ -10447,19 +10447,19 @@
         <v>116896</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99821</v>
+        <v>100137</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>137924</v>
+        <v>139490</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3018356681299407</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2577473460386633</v>
+        <v>0.2585624441470372</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3561317695485533</v>
+        <v>0.3601767526497762</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>196</v>
@@ -10468,19 +10468,19 @@
         <v>209661</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>183198</v>
+        <v>186274</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>235316</v>
+        <v>235222</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2772299193193407</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2422380299551551</v>
+        <v>0.2463056718574012</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3111532536279489</v>
+        <v>0.311029321669066</v>
       </c>
     </row>
     <row r="26">
@@ -10497,19 +10497,19 @@
         <v>7749</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3122</v>
+        <v>3078</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15722</v>
+        <v>15155</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02099938465164913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008461632904059834</v>
+        <v>0.008341488395309219</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04260922660769758</v>
+        <v>0.04107270160248336</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -10518,19 +10518,19 @@
         <v>5616</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1872</v>
+        <v>2005</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13306</v>
+        <v>12760</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01450101991850444</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004834388704826895</v>
+        <v>0.005177332897193893</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03435642940438713</v>
+        <v>0.0329472328482304</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -10539,19 +10539,19 @@
         <v>13365</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7476</v>
+        <v>6060</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24039</v>
+        <v>22374</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01767159975146277</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009884784562857428</v>
+        <v>0.008013284534043749</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03178592492328104</v>
+        <v>0.02958488132985513</v>
       </c>
     </row>
     <row r="27">
@@ -10690,19 +10690,19 @@
         <v>3747</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8570</v>
+        <v>9117</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01786858814995582</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004466763432551049</v>
+        <v>0.004516157493899397</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04086376214597896</v>
+        <v>0.04347524540229282</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -10711,19 +10711,19 @@
         <v>2895</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7719</v>
+        <v>7705</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0132454238106667</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004305668543450683</v>
+        <v>0.004319014716825864</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03531472052490869</v>
+        <v>0.03524794832905314</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -10732,19 +10732,19 @@
         <v>6643</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2890</v>
+        <v>2647</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13576</v>
+        <v>12434</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0155090980729399</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006747148309581562</v>
+        <v>0.006179762924163697</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03169838246015439</v>
+        <v>0.02903111258936577</v>
       </c>
     </row>
     <row r="30">
@@ -10761,19 +10761,19 @@
         <v>127422</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>112940</v>
+        <v>113507</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>141155</v>
+        <v>141381</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6076114735948063</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5385526440352101</v>
+        <v>0.5412564898714151</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6730941679412022</v>
+        <v>0.6741750653369626</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>140</v>
@@ -10782,19 +10782,19 @@
         <v>138474</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>122197</v>
+        <v>124115</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152359</v>
+        <v>151706</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6334970849269168</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5590296854392818</v>
+        <v>0.5678074900304301</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6970199417590802</v>
+        <v>0.6940294274210956</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>268</v>
@@ -10803,19 +10803,19 @@
         <v>265896</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>246691</v>
+        <v>246186</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>284958</v>
+        <v>285069</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6208225209626351</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5759808142189621</v>
+        <v>0.5748013539927659</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6653284748168933</v>
+        <v>0.6655877111762021</v>
       </c>
     </row>
     <row r="31">
@@ -10832,19 +10832,19 @@
         <v>73674</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>60500</v>
+        <v>60184</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>88285</v>
+        <v>86986</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3513128761317493</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2884917427264931</v>
+        <v>0.2869873274419498</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4209846903129809</v>
+        <v>0.4147938639325698</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -10853,19 +10853,19 @@
         <v>67510</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>54835</v>
+        <v>54421</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>81817</v>
+        <v>80497</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3088479348493734</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2508631395089335</v>
+        <v>0.2489678731979455</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3742974584293969</v>
+        <v>0.3682584781658378</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>145</v>
@@ -10874,19 +10874,19 @@
         <v>141184</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>122698</v>
+        <v>122792</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>160218</v>
+        <v>160933</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3296403591664025</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2864781234555435</v>
+        <v>0.2866981858395211</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3740822718476264</v>
+        <v>0.3757514711866216</v>
       </c>
     </row>
     <row r="32">
@@ -10903,19 +10903,19 @@
         <v>4867</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1253</v>
+        <v>1602</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12008</v>
+        <v>13794</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02320706212348862</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005973575004982125</v>
+        <v>0.007640828306146343</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05726209137452103</v>
+        <v>0.06577557066182887</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -10924,19 +10924,19 @@
         <v>9707</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4836</v>
+        <v>4849</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16716</v>
+        <v>16959</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04440955641304309</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.022122572557677</v>
+        <v>0.02218335453715689</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07647102926373787</v>
+        <v>0.07758480842467476</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -10945,19 +10945,19 @@
         <v>14574</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8328</v>
+        <v>7897</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>23012</v>
+        <v>23546</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03402802179802246</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01944338961612163</v>
+        <v>0.0184372569451798</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05372845618588638</v>
+        <v>0.05497625434168574</v>
       </c>
     </row>
     <row r="33">
@@ -11052,16 +11052,16 @@
         <v>5809</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18880</v>
+        <v>18345</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03986353771025641</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02215424346943159</v>
+        <v>0.02215178016347341</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07200199121511167</v>
+        <v>0.06996174863549447</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -11070,19 +11070,19 @@
         <v>11073</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6020</v>
+        <v>5301</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20075</v>
+        <v>20186</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04068237314616532</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02211698996915328</v>
+        <v>0.01947723106665785</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07375844450708452</v>
+        <v>0.07416656440474749</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -11091,19 +11091,19 @@
         <v>21526</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13345</v>
+        <v>13451</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>31937</v>
+        <v>32892</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04028058252526152</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02497149000283882</v>
+        <v>0.02517013203370753</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05976367192984582</v>
+        <v>0.06155016970405779</v>
       </c>
     </row>
     <row r="35">
@@ -11120,19 +11120,19 @@
         <v>29950</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>20786</v>
+        <v>20069</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41346</v>
+        <v>41644</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.11421626504992</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07927069113076446</v>
+        <v>0.07653655830303187</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1576764033539606</v>
+        <v>0.1588138616135464</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>26</v>
@@ -11141,19 +11141,19 @@
         <v>27165</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>18357</v>
+        <v>19122</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>38369</v>
+        <v>39887</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09980919765749897</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06744654039775717</v>
+        <v>0.07025481788418589</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1409725524250733</v>
+        <v>0.1465490768560548</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>55</v>
@@ -11162,19 +11162,19 @@
         <v>57115</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>43781</v>
+        <v>45081</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>72930</v>
+        <v>73973</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1068785357676387</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08192690296475258</v>
+        <v>0.08435909345707904</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1364723613908475</v>
+        <v>0.1384245752846783</v>
       </c>
     </row>
     <row r="36">
@@ -11191,19 +11191,19 @@
         <v>181799</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>166300</v>
+        <v>166195</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>196530</v>
+        <v>197597</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6933105633439255</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6342017916084595</v>
+        <v>0.6338007359446468</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7494883417597741</v>
+        <v>0.7535578838294734</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>190</v>
@@ -11212,19 +11212,19 @@
         <v>196647</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>180596</v>
+        <v>180315</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>210792</v>
+        <v>210912</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7225036144669316</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6635328072377542</v>
+        <v>0.6625006163406088</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7744750478583186</v>
+        <v>0.7749160653283089</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>370</v>
@@ -11233,19 +11233,19 @@
         <v>378445</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>355580</v>
+        <v>356074</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>398043</v>
+        <v>399222</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7081790095189676</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6653921853824279</v>
+        <v>0.666315961626933</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7448523199963059</v>
+        <v>0.7470589061055211</v>
       </c>
     </row>
     <row r="37">
@@ -11262,19 +11262,19 @@
         <v>40017</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>27904</v>
+        <v>28918</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>52830</v>
+        <v>52388</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1526096338958981</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1064150883524516</v>
+        <v>0.1102836227480221</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.201470993498239</v>
+        <v>0.1997885907365087</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -11283,19 +11283,19 @@
         <v>34989</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>25054</v>
+        <v>26460</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>47367</v>
+        <v>47785</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1285538913088329</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09204957538932328</v>
+        <v>0.09721817124237911</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1740330156188018</v>
+        <v>0.1755679592041639</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>72</v>
@@ -11304,19 +11304,19 @@
         <v>75006</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>61835</v>
+        <v>59898</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>94080</v>
+        <v>92348</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1403576937903783</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1157111067661771</v>
+        <v>0.1120856514557231</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.176050639494946</v>
+        <v>0.1728095996326629</v>
       </c>
     </row>
     <row r="38">
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9224</v>
+        <v>8193</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.008450923420571294</v>
@@ -11358,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03389025636384939</v>
+        <v>0.0301023077262334</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>8024</v>
+        <v>8241</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.004304178397753862</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01501454135305783</v>
+        <v>0.01542069307056224</v>
       </c>
     </row>
     <row r="39">
@@ -11471,19 +11471,19 @@
         <v>12140</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5897</v>
+        <v>6507</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20622</v>
+        <v>21532</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01858103863952255</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009025307968030197</v>
+        <v>0.009958931555586754</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03156307538896484</v>
+        <v>0.0329551906599134</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>14</v>
@@ -11492,19 +11492,19 @@
         <v>15326</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>8275</v>
+        <v>9097</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>24193</v>
+        <v>25198</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02223423466824906</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01200493718030974</v>
+        <v>0.01319770671213013</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03509792538572475</v>
+        <v>0.03655603959237654</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>25</v>
@@ -11513,19 +11513,19 @@
         <v>27466</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>18678</v>
+        <v>17997</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>39459</v>
+        <v>39186</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02045652049910722</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01391121721372968</v>
+        <v>0.01340424702373906</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02938854798585835</v>
+        <v>0.02918514436890975</v>
       </c>
     </row>
     <row r="41">
@@ -11542,19 +11542,19 @@
         <v>127361</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>106736</v>
+        <v>104962</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>148713</v>
+        <v>148874</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.194930028604679</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1633623446910575</v>
+        <v>0.1606483003662668</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2276100028884828</v>
+        <v>0.2278560253072069</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>100</v>
@@ -11563,19 +11563,19 @@
         <v>107331</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>87081</v>
+        <v>89737</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>127541</v>
+        <v>126364</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1557094047094403</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1263322015609023</v>
+        <v>0.1301853280299472</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1850294161634252</v>
+        <v>0.18332193376202</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>212</v>
@@ -11584,19 +11584,19 @@
         <v>234692</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>209105</v>
+        <v>209097</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>268711</v>
+        <v>268911</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1747949008812551</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1557383345845874</v>
+        <v>0.1557325795186672</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2001322519246594</v>
+        <v>0.2002811840954788</v>
       </c>
     </row>
     <row r="42">
@@ -11613,19 +11613,19 @@
         <v>367809</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>339675</v>
+        <v>340407</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>396281</v>
+        <v>392809</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5629433007495798</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5198829865970119</v>
+        <v>0.521004009343</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6065202768067851</v>
+        <v>0.601206290918527</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>364</v>
@@ -11634,19 +11634,19 @@
         <v>388239</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>362647</v>
+        <v>360545</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>415781</v>
+        <v>415931</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5632358929718957</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5261084469359265</v>
+        <v>0.5230592092709908</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6031925300155068</v>
+        <v>0.6034093844820951</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>689</v>
@@ -11655,19 +11655,19 @@
         <v>756048</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>716897</v>
+        <v>718183</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>791866</v>
+        <v>793032</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5630935120716369</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5339343834316606</v>
+        <v>0.5348918954306742</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.589769921990773</v>
+        <v>0.5906386967071858</v>
       </c>
     </row>
     <row r="43">
@@ -11684,19 +11684,19 @@
         <v>141062</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>120642</v>
+        <v>120608</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>164974</v>
+        <v>165508</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2158993609069355</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1846456720198144</v>
+        <v>0.1845936010485969</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2524982224070911</v>
+        <v>0.2533147423605781</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>159</v>
@@ -11705,19 +11705,19 @@
         <v>171110</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>148425</v>
+        <v>148574</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>196544</v>
+        <v>194724</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2482365332725515</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2153271692936017</v>
+        <v>0.2155428159777889</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2851359330149313</v>
+        <v>0.2824950632239029</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>284</v>
@@ -11726,19 +11726,19 @@
         <v>312171</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>282240</v>
+        <v>281219</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>347071</v>
+        <v>346266</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2325006545919932</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2102079597332179</v>
+        <v>0.209447499536571</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2584932293929095</v>
+        <v>0.25789382699688</v>
       </c>
     </row>
     <row r="44">
@@ -11755,19 +11755,19 @@
         <v>4996</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1071</v>
+        <v>1107</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>12037</v>
+        <v>13404</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.007646271099283224</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001638926033314422</v>
+        <v>0.001693877171638209</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0184227740368774</v>
+        <v>0.02051577355213101</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>7</v>
@@ -11776,19 +11776,19 @@
         <v>7296</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3092</v>
+        <v>3319</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14842</v>
+        <v>15111</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01058393437786352</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.004486286608775641</v>
+        <v>0.004814767235688956</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02153140333730693</v>
+        <v>0.02192251990455264</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>11</v>
@@ -11797,19 +11797,19 @@
         <v>12291</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>6476</v>
+        <v>6542</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>22151</v>
+        <v>22342</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.00915441195600751</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004823434675952003</v>
+        <v>0.0048726474256074</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0164975515409755</v>
+        <v>0.01664005973113227</v>
       </c>
     </row>
     <row r="45">
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>6463</v>
+        <v>6547</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002368725010528794</v>
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.008312145686544623</v>
+        <v>0.008420695568344946</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -11922,19 +11922,19 @@
         <v>3010</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>8077</v>
+        <v>8236</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.003647219119233081</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001152860014481542</v>
+        <v>0.001156175289095341</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.009787573244259933</v>
+        <v>0.009980784914364965</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>5</v>
@@ -11943,19 +11943,19 @@
         <v>4851</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1870</v>
+        <v>1878</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>10728</v>
+        <v>10988</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.003026994116335457</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001166756121885892</v>
+        <v>0.001172065821585773</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.006693896742197143</v>
+        <v>0.006855913034776416</v>
       </c>
     </row>
     <row r="47">
@@ -11972,19 +11972,19 @@
         <v>37790</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>27474</v>
+        <v>27651</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>51715</v>
+        <v>52068</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04860510795407961</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03533695687589863</v>
+        <v>0.03556362357832052</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0665148441745685</v>
+        <v>0.06696869748275006</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>35</v>
@@ -11993,19 +11993,19 @@
         <v>37940</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>27372</v>
+        <v>26901</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>51597</v>
+        <v>50858</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04597727609545564</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03317111951766324</v>
+        <v>0.03260051451289855</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06252739993707374</v>
+        <v>0.0616322401301948</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>71</v>
@@ -12014,19 +12014,19 @@
         <v>75730</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>59554</v>
+        <v>59631</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>95350</v>
+        <v>95398</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04725209387602509</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03715888110720026</v>
+        <v>0.03720695290027361</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05949422193906513</v>
+        <v>0.05952372842065936</v>
       </c>
     </row>
     <row r="48">
@@ -12043,19 +12043,19 @@
         <v>478889</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>450553</v>
+        <v>452134</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>504834</v>
+        <v>506941</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.6159381330280589</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5794926470169012</v>
+        <v>0.5815264481628776</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.6493077465518166</v>
+        <v>0.6520181353260882</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>444</v>
@@ -12064,19 +12064,19 @@
         <v>480707</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>450143</v>
+        <v>449286</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>510347</v>
+        <v>507729</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5825443043067374</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5455046005922515</v>
+        <v>0.5444663865595737</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.6184634263978253</v>
+        <v>0.615290609481541</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>910</v>
@@ -12085,19 +12085,19 @@
         <v>959596</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>917807</v>
+        <v>921270</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1001182</v>
+        <v>1000016</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5987443691912249</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5726699241226156</v>
+        <v>0.5748303617164605</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.6246919774903149</v>
+        <v>0.6239646938781127</v>
       </c>
     </row>
     <row r="49">
@@ -12114,19 +12114,19 @@
         <v>257105</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>232270</v>
+        <v>230343</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>283781</v>
+        <v>283861</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3306842116357228</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2987420770848133</v>
+        <v>0.2962626731070649</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3649937144856755</v>
+        <v>0.3650970744694881</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>262</v>
@@ -12135,19 +12135,19 @@
         <v>292925</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>265904</v>
+        <v>267166</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>323599</v>
+        <v>323393</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3549811577877139</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3222357464082856</v>
+        <v>0.3237647630297492</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3921529824222217</v>
+        <v>0.391902981375549</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>505</v>
@@ -12156,19 +12156,19 @@
         <v>550031</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>511186</v>
+        <v>512138</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>589809</v>
+        <v>590640</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3431941863852452</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3189568605965763</v>
+        <v>0.3195510473103362</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3680139334324549</v>
+        <v>0.3685322920353335</v>
       </c>
     </row>
     <row r="50">
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>6587</v>
+        <v>6674</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.002403822371609887</v>
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.008472611329642629</v>
+        <v>0.008583559267672698</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>10</v>
@@ -12206,19 +12206,19 @@
         <v>10604</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>5318</v>
+        <v>5120</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>20025</v>
+        <v>18254</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01285004269085987</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.006444082094307774</v>
+        <v>0.006204682951534678</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02426732752331641</v>
+        <v>0.02212159671901707</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>12</v>
@@ -12227,19 +12227,19 @@
         <v>12473</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>6618</v>
+        <v>6276</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>20680</v>
+        <v>21507</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.007782356431169313</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.004129264131194877</v>
+        <v>0.003916245554183288</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01290333152470398</v>
+        <v>0.01341917611412377</v>
       </c>
     </row>
     <row r="51">
@@ -12331,19 +12331,19 @@
         <v>53757</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>39536</v>
+        <v>41182</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>69868</v>
+        <v>70900</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01587776393432325</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0116773628710128</v>
+        <v>0.01216368711083882</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.0206364078616896</v>
+        <v>0.02094133791487726</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>52</v>
@@ -12352,19 +12352,19 @@
         <v>54436</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>40344</v>
+        <v>41010</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>70324</v>
+        <v>70782</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01538852475939301</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01140494443841339</v>
+        <v>0.01159297409766708</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01987982468652803</v>
+        <v>0.02000925433739781</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>103</v>
@@ -12373,19 +12373,19 @@
         <v>108193</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>87535</v>
+        <v>88607</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>130358</v>
+        <v>130935</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01562778134650779</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01264384220612657</v>
+        <v>0.01279865467733827</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01882941795038299</v>
+        <v>0.01891279565213444</v>
       </c>
     </row>
     <row r="53">
@@ -12402,19 +12402,19 @@
         <v>328281</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>293780</v>
+        <v>291618</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>365211</v>
+        <v>365341</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.09696216560731205</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.08677160892722954</v>
+        <v>0.08613319671736824</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1078697058688885</v>
+        <v>0.1079082363370908</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>291</v>
@@ -12423,19 +12423,19 @@
         <v>305359</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>273074</v>
+        <v>273172</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>339590</v>
+        <v>337128</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.08632188437750651</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07719523513268464</v>
+        <v>0.07722308046876444</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0959985558145007</v>
+        <v>0.09530256317066989</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>597</v>
@@ -12444,19 +12444,19 @@
         <v>633640</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>587087</v>
+        <v>584541</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>686553</v>
+        <v>684832</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.09152538708831806</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.08480099613411603</v>
+        <v>0.08443333460136911</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.09916827609493507</v>
+        <v>0.09891970593803884</v>
       </c>
     </row>
     <row r="54">
@@ -12473,19 +12473,19 @@
         <v>2054853</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1997061</v>
+        <v>1998474</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2110280</v>
+        <v>2113901</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.6069274331822382</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.5898577420320962</v>
+        <v>0.5902751966539808</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.6232985276906011</v>
+        <v>0.6243678875495183</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2011</v>
@@ -12494,19 +12494,19 @@
         <v>2121685</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>2060557</v>
+        <v>2058860</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2180966</v>
+        <v>2174854</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.5997787560273122</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.5824985293582228</v>
+        <v>0.5820186910486405</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.616536897645181</v>
+        <v>0.6148090046046939</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3984</v>
@@ -12515,19 +12515,19 @@
         <v>4176538</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>4093651</v>
+        <v>4097509</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>4255477</v>
+        <v>4257705</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.6032747313827544</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.5913022467701211</v>
+        <v>0.5918595512096855</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.6146769787261509</v>
+        <v>0.6149988635639756</v>
       </c>
     </row>
     <row r="55">
@@ -12544,19 +12544,19 @@
         <v>908642</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>859167</v>
+        <v>857197</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>968673</v>
+        <v>959669</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2683792827093047</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2537660878032029</v>
+        <v>0.2531843543019898</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2861099964316177</v>
+        <v>0.283450536397086</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>918</v>
@@ -12565,19 +12565,19 @@
         <v>993085</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>934239</v>
+        <v>940299</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1042764</v>
+        <v>1052716</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2807350803666844</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2640999199274358</v>
+        <v>0.2658130489526658</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2947786788419052</v>
+        <v>0.297592193030402</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1776</v>
@@ -12586,19 +12586,19 @@
         <v>1901728</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1826842</v>
+        <v>1826627</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1976792</v>
+        <v>1977237</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2746926247947099</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2638758171318439</v>
+        <v>0.2638447718826035</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2855351615855779</v>
+        <v>0.2855995498402844</v>
       </c>
     </row>
     <row r="56">
@@ -12615,19 +12615,19 @@
         <v>40131</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>28133</v>
+        <v>27934</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>55111</v>
+        <v>55858</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01185335456682174</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.008309549539482632</v>
+        <v>0.008250756796826218</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01627763852009196</v>
+        <v>0.01649828347716716</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>59</v>
@@ -12636,19 +12636,19 @@
         <v>62881</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>46714</v>
+        <v>47563</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>77914</v>
+        <v>80057</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01777575446910377</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01320550123586512</v>
+        <v>0.01344550965712967</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02202540541906209</v>
+        <v>0.02263134424832777</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>94</v>
@@ -12657,19 +12657,19 @@
         <v>103012</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>81877</v>
+        <v>85268</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>124029</v>
+        <v>127268</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.01487947538770981</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01182668969091667</v>
+        <v>0.01231637814306213</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01791521142235279</v>
+        <v>0.0183830611634386</v>
       </c>
     </row>
     <row r="57">
